--- a/data/genius_Bushido_Staatsfeind-nr-1.xlsx
+++ b/data/genius_Bushido_Staatsfeind-nr-1.xlsx
@@ -407,7 +407,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Das ist nicht Weihnachten, wir werden jetzt eure Häuser verbrennenDas ist Musik aus einer Gegend, die die Deutschen nicht kennenDas ist wie Krebs, der die Zellen frisstGuck mich an, ich bin Nemesis, tok tok, hör mal, wer da hämmert, bitchDas ist die Panik nach dem World Trade AttentatDas ist die Angst wie wenn das Böse aus dem Schatten tratDas hier ist nicht normal wie Kinder bei der TherapieDenn dieser Junge ist der Inbegriff der HierarchieDas ist wie das Ende der WeltDenn ihr habt nichts in der Hand, was den Rebellen noch hältIch bin zum Töten verdammtUnd euer Plan mich aufzuhalten ist jetzt flöten gegangenOh mein Gott, das ist Hip Hop's UntergangEs ist aus, ich spiel mit Hip Hop BoomerangGuck dich an, du willst gern schwarz sein, Junge neinJeder weiß, ich bin der Staatsfeind Nummer eins, yeah</t>
+          <t>Das ist nicht Weihnachten, wir werden jetzt eure Häuser verbrennen
+Das ist Musik aus einer Gegend, die die Deutschen nicht kennen
+Das ist wie Krebs, der die Zellen frisst
+Guck mich an, ich bin Nemesis, tok tok, hör mal, wer da hämmert, bitch
+Das ist die Panik nach dem World Trade Attentat
+Das ist die Angst wie wenn das Böse aus dem Schatten trat
+Das hier ist nicht normal wie Kinder bei der Therapie
+Denn dieser Junge ist der Inbegriff der Hierarchie
+Das ist wie das Ende der Welt
+Denn ihr habt nichts in der Hand, was den Rebellen noch hält
+Ich bin zum Töten verdammt
+Und euer Plan mich aufzuhalten ist jetzt flöten gegangen
+Oh mein Gott, das ist Hip Hop's Untergang
+Es ist aus, ich spiel mit Hip Hop Boomerang
+Guck dich an, du willst gern schwarz sein, Junge nein
+Jeder weiß, ich bin der Staatsfeind Nummer eins, yeah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -459,8 +474,65 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Intro]YeahOkayStiDas ist deine Bombe, JungeOkay, okay[Hook]Es macht klick klack klick klack boom, und die Kugeln fallenKlick klack klick und es braucht dir nicht zu gefallenNe schnelle Kugel ist besser, als vor den Zug zu fallenIch bin der beste hier, der beste in Bezug auf allemKlick klack klick klack boom, und die Kugeln fallenKlick klack klick und es braucht dir nicht zu gefallenNe schnelle Kugel ist besser, als vor den Zug zu fallenIch bin der beste hier, der beste in Bezug auf allem[Part 1]Weil ich mit Waffen deale hab ich nen Keller voller MunitionUnd ich verkaufe Koks an Kids, die an der Uni wohnenIch mach das lebenslänglichGuck, im Kindergarten hab ich schon gesagt, ich tausche Abziehbilder gegen HandysIch bin ein schlimmer FingerIch hab Hausarrest und koche nur aus Langeweile Crack in meinem KinderzimmerDenn damals in der Schule nannten sie mich KlassenclownHeute sind wir Jungs, die im KaDeWe die Kassen klauenIch mach nen Bankraub und fahre dann den FluchtwagenWährend deine Eltern auf dich Hundesohn im Puff wartenDas ist ein Albtraum und wir Kinder müssen überlebenDenn die Straße will, dass du was tust, hör auf zu überlegenHör auf dir einzureden, du wärst doch was BesseresNur weil du Juli hörst und bald im dreizehnten Semester bistDu bist nur irgend so ein Typ, der sich nach oben schläftIrgend so ein Typ hat mir erzählt du hast Hodenkrebs
-[Hook][Part 2]Ich bin auf Koka und spüre meine Nase nicht mehrSchieß auf euch Punks, so als ob ich wahnsinnig wär'Ich flieg nach Nordkorea und schmuggele PlutoniumDu finanzierst dir mit Oralverkehr dein StudiumDu bist wie Asterix, nur ein Held in ZeichentrickNur ein krankes Schwein, das auf'm Friedhof Leichen ficktDenn man verwechselt dich schon öfter mit 'nem GartenzwergGuck in den Spiegel, Raptile, und du siehst keinen harten KerlWer braucht Raketenwerfer, wer braucht 'ne PanzerfaustIch hab ein ganzes Waffenlager unter meiner CouchIch bin nicht nur verrückt, nein, ich bin auch BerlinerIch zünde morgen die Atombombe über ChinaNur ein Anschlag und ich stehe in der New York TimesBesser für dich, wenn du in deinem kleinem Kuhdorf bleibstIch bin so krass, du findest mein Poster im PentagonSiehst du, Boxen ist mein Hobby, Junge ich bin Fan davon[Hook][Outro]YeahOh mein GottStiWas hast du nur gemacht, alterYeah, yeah, yeahBuOh man, alterMein Name ist Bushido, JungsDanke StiYeahWhooow</t>
+          <t>[Intro]
+Yeah
+Okay
+StiDas ist deine Bombe, Junge
+Okay, okay
+[Hook]
+Es macht klick klack klick klack boom, und die Kugeln fallen
+Klick klack klick und es braucht dir nicht zu gefallen
+Ne schnelle Kugel ist besser, als vor den Zug zu fallen
+Ich bin der beste hier, der beste in Bezug auf allem
+Klick klack klick klack boom, und die Kugeln fallen
+Klick klack klick und es braucht dir nicht zu gefallen
+Ne schnelle Kugel ist besser, als vor den Zug zu fallen
+Ich bin der beste hier, der beste in Bezug auf allem
+[Part 1]
+Weil ich mit Waffen deale hab ich nen Keller voller Munition
+Und ich verkaufe Koks an Kids, die an der Uni wohnen
+Ich mach das lebenslänglich
+Guck, im Kindergarten hab ich schon gesagt, ich tausche Abziehbilder gegen Handys
+Ich bin ein schlimmer Finger
+Ich hab Hausarrest und koche nur aus Langeweile Crack in meinem Kinderzimmer
+Denn damals in der Schule nannten sie mich KlassenclownHeute sind wir Jungs, die im KaDeWe die Kassen klauen
+Ich mach nen Bankraub und fahre dann den Fluchtwagen
+Während deine Eltern auf dich Hundesohn im Puff warten
+Das ist ein Albtraum und wir Kinder müssen überleben
+Denn die Straße will, dass du was tust, hör auf zu überlegen
+Hör auf dir einzureden, du wärst doch was Besseres
+Nur weil du Juli hörst und bald im dreizehnten Semester bist
+Du bist nur irgend so ein Typ, der sich nach oben schläft
+Irgend so ein Typ hat mir erzählt du hast Hodenkrebs
+[Hook]
+[Part 2]
+Ich bin auf Koka und spüre meine Nase nicht mehr
+Schieß auf euch Punks, so als ob ich wahnsinnig wär'
+Ich flieg nach Nordkorea und schmuggele Plutonium
+Du finanzierst dir mit Oralverkehr dein Studium
+Du bist wie Asterix, nur ein Held in Zeichentrick
+Nur ein krankes Schwein, das auf'm Friedhof Leichen fickt
+Denn man verwechselt dich schon öfter mit 'nem Gartenzwerg
+Guck in den Spiegel, Raptile, und du siehst keinen harten Kerl
+Wer braucht Raketenwerfer, wer braucht 'ne Panzerfaust
+Ich hab ein ganzes Waffenlager unter meiner Couch
+Ich bin nicht nur verrückt, nein, ich bin auch Berliner
+Ich zünde morgen die Atombombe über China
+Nur ein Anschlag und ich stehe in der New York Times
+Besser für dich, wenn du in deinem kleinem Kuhdorf bleibst
+Ich bin so krass, du findest mein Poster im Pentagon
+Siehst du, Boxen ist mein Hobby, Junge ich bin Fan davon
+[Hook]
+[Outro]
+Yeah
+Oh mein Gott
+Sti
+Was hast du nur gemacht, alter
+Yeah, yeah, yeah
+Bu
+Oh man, alter
+Mein Name ist Bushido, Jungs
+Danke StiYeahWhooow</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,8 +584,78 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part 1: Saad]Es geht tok tok, der Libanese ist daBesuch mich auf Tour, ich box box jeden der kamSie flehen mich an und kriegen nie ein Feature mit mirDie Teacher ist hier, ich hab deinem Idol sein T-Shirt signiertDu willst die Schwester deiner Mama, komm ich liefere sie dirYeah, holt sie ab, wenn sie mich wieder massiertGeil wie sie mich verwöhnt, die Scheiße bin ich gewöhntIch bin ein guter Junge, plus eingebildet und schönEs geht ratz fatz, wenn ich komm machst du Platz PlatzIn meinem Viertel geht es fast ab wie in BagdadUnd du bist Matsch Matsch, wenn ich dich klatsch klatschBin ich mal in deiner Fuck-Stadt schiebst du abfuckDer aus dem Libanon, der, der jetzt auf VIVA kommtDer Electro Ghetto salutiert, wenn der Leader kommtErsguterjunge Schwanz-in-den-Mund-StyleMit jedem Track von uns verbreitet sich das UnheilIch will dich schlagen, leider fällt mir jetzt kein Grund einFick nicht mit mir, es ist schlecht für die GesundheitEs steht zehn zu eins für den besten Rapper hierZieh dich zurück bevor ich meinen Respekt vor dir verlier[Hook: Saad, Chakuza, Bushido]Ich hatte einen Traum, ich wollte einfach glücklich seinUnd nun Scheiße einfach alles was mir übrig bleibtSchlaf nicht ein, hier kommt der Sandmann ans MicDer in der Nacht all deine Knochen wie ein Panzer zerreibt, yeahIch hatte einen Traum, ich wollte einfach glücklich seinUnd nun Scheiße einfach alles was mir übrig bleibtSchlaf nicht ein, hier kommt der Sandmann ans MicDer in der Nacht all deine Knochen wie ein Panzer zerreibt, yeah
-[Part 2: Chakuza]Chakuza SpartakusEin ganzer Mann, aber ein Sklave seiner Stadt, der dann im Kampfanzug sehr hart sein mussFeuer zieh mit mir, beherrsch die Spur meines BlutesIch spuck ohne Skrupel Wut auf deine Jugend, als wäre es nichts GutesEs macht BAAM und du spürst es, ich bin dran und ihr spürt esIch bin immer da, der Star, wo alle anderen sich fürchtenStickle ist mein Mann am Beat, Stickle ist ein ganzer KriegDer euch verdammten Punks zu Sand zersiebt wie Dantes PeakMein Shit ist mächtig, kräftig und stark, doch in echt zerbrechlich wie GlasAuch meine Männer nennen mich Dragon HeartMein Shit ist Rockin' and Rollin'Ich mach jeden Kingpin bloß mit einer Hand am Anschlag platt wie beim Bowling, PunkerIch bin echt dankbar, doch was ich heute so hörIst Zeug, das nichts schafft, sondern einfach nur noch Träume zerstörtMan, hör mich an und geh in Deckung, es ist gefährlich was ich spuckDenn wenn ich rappe wird es dunkel, als würde die Erde dich verschluckenSag deinen Mädchen, sie können Fan sein, wenn sie möchtenDenn mein Penis ist so lang, man könnte Brände damit löschenDer letzte Schuss im MagazinDer letzte Schuss, der jetzt ein Schluss unter euch Punker zieht[Hook: Saad, Chakuza, Bushido][Part 3: Bushido]Ich würde nen Kuchen backen, doch ich bin schwerer DingeUnd ich versklave neun Rapper, wie der Herr der RingeMann nennt dich dieses einen, mit seinen miesen ZeilenUnd diesen Herbst lädt mich Stoiber auf die Wiesn einIch heule wie ein Wolf, Homie, ich bin EinzelgängerIhr kriegt nen neuen Job beim ZDF als MainzelmännerIch bin beim Öffentlich Rechtlichen unzensiertDu trinkst nur wöchentlich mit hässlichen Tunten BierIch zaubere euch nen Hasen aus meinem ZylinderhutUnd schneide mir die Pulsadern auf vor blinder WutHerzlich willkommen, das ist mein kleines TheaterstückDu bist ein kleines Kind, das heute den Predator küsstIch nehme euch mit auf eine Reise ohne WiederkehrUnd schon wieder kommen diese Lieder auf VIVA, yeahDas ist nicht Spaß am DienstagDas sind drei Kerle, die euch kidnappen, alles Gute noch zum ValentinstagIch gebe gebrochenen Herzen den Mut zum weiter schlagenIch bin jetzt down mit Beatlefield, bitte weitersagenAls wäre ich kalter Krieg, bringe ich euch den SensemannKlopf klopf, geh an deine Tür, jetzt ist Sense, mann
+          <t>[Part 1: Saad]
+Es geht tok tok, der Libanese ist da
+Besuch mich auf Tour, ich box box jeden der kam
+Sie flehen mich an und kriegen nie ein Feature mit mir
+Die Teacher ist hier, ich hab deinem Idol sein T-Shirt signiert
+Du willst die Schwester deiner Mama, komm ich liefere sie dir
+Yeah, holt sie ab, wenn sie mich wieder massiert
+Geil wie sie mich verwöhnt, die Scheiße bin ich gewöhnt
+Ich bin ein guter Junge, plus eingebildet und schön
+Es geht ratz fatz, wenn ich komm machst du Platz Platz
+In meinem Viertel geht es fast ab wie in Bagdad
+Und du bist Matsch Matsch, wenn ich dich klatsch klatsch
+Bin ich mal in deiner Fuck-Stadt schiebst du abfuck
+Der aus dem Libanon, der, der jetzt auf VIVA kommt
+Der Electro Ghetto salutiert, wenn der Leader kommt
+Ersguterjunge Schwanz-in-den-Mund-Style
+Mit jedem Track von uns verbreitet sich das Unheil
+Ich will dich schlagen, leider fällt mir jetzt kein Grund ein
+Fick nicht mit mir, es ist schlecht für die Gesundheit
+Es steht zehn zu eins für den besten Rapper hier
+Zieh dich zurück bevor ich meinen Respekt vor dir verlier
+[Hook: Saad, Chakuza, Bushido]
+Ich hatte einen Traum, ich wollte einfach glücklich sein
+Und nun Scheiße einfach alles was mir übrig bleibt
+Schlaf nicht ein, hier kommt der Sandmann ans Mic
+Der in der Nacht all deine Knochen wie ein Panzer zerreibt, yeah
+Ich hatte einen Traum, ich wollte einfach glücklich sein
+Und nun Scheiße einfach alles was mir übrig bleibt
+Schlaf nicht ein, hier kommt der Sandmann ans Mic
+Der in der Nacht all deine Knochen wie ein Panzer zerreibt, yeah
+[Part 2: Chakuza]
+Chakuza Spartakus
+Ein ganzer Mann, aber ein Sklave seiner Stadt, der dann im Kampfanzug sehr hart sein muss
+Feuer zieh mit mir, beherrsch die Spur meines Blutes
+Ich spuck ohne Skrupel Wut auf deine Jugend, als wäre es nichts Gutes
+Es macht BAAM und du spürst es, ich bin dran und ihr spürt es
+Ich bin immer da, der Star, wo alle anderen sich fürchten
+Stickle ist mein Mann am Beat, Stickle ist ein ganzer Krieg
+Der euch verdammten Punks zu Sand zersiebt wie Dantes Peak
+Mein Shit ist mächtig, kräftig und stark, doch in echt zerbrechlich wie Glas
+Auch meine Männer nennen mich Dragon Heart
+Mein Shit ist Rockin' and Rollin'
+Ich mach jeden Kingpin bloß mit einer Hand am Anschlag platt wie beim Bowling, Punker
+Ich bin echt dankbar, doch was ich heute so hör
+Ist Zeug, das nichts schafft, sondern einfach nur noch Träume zerstört
+Man, hör mich an und geh in Deckung, es ist gefährlich was ich spuck
+Denn wenn ich rappe wird es dunkel, als würde die Erde dich verschlucken
+Sag deinen Mädchen, sie können Fan sein, wenn sie möchten
+Denn mein Penis ist so lang, man könnte Brände damit löschen
+Der letzte Schuss im Magazin
+Der letzte Schuss, der jetzt ein Schluss unter euch Punker zieht
+[Hook: Saad, Chakuza, Bushido]
+[Part 3: Bushido]
+Ich würde nen Kuchen backen, doch ich bin schwerer Dinge
+Und ich versklave neun Rapper, wie der Herr der Ringe
+Mann nennt dich dieses einen, mit seinen miesen Zeilen
+Und diesen Herbst lädt mich Stoiber auf die Wiesn ein
+Ich heule wie ein Wolf, Homie, ich bin Einzelgänger
+Ihr kriegt nen neuen Job beim ZDF als Mainzelmänner
+Ich bin beim Öffentlich Rechtlichen unzensiert
+Du trinkst nur wöchentlich mit hässlichen Tunten Bier
+Ich zaubere euch nen Hasen aus meinem Zylinderhut
+Und schneide mir die Pulsadern auf vor blinder Wut
+Herzlich willkommen, das ist mein kleines Theaterstück
+Du bist ein kleines Kind, das heute den Predator küsst
+Ich nehme euch mit auf eine Reise ohne Wiederkehr
+Und schon wieder kommen diese Lieder auf VIVA, yeah
+Das ist nicht Spaß am Dienstag
+Das sind drei Kerle, die euch kidnappen, alles Gute noch zum Valentinstag
+Ich gebe gebrochenen Herzen den Mut zum weiter schlagen
+Ich bin jetzt down mit Beatlefield, bitte weitersagen
+Als wäre ich kalter Krieg, bringe ich euch den SensemannKlopf klopf, geh an deine Tür, jetzt ist Sense, mann
 [Hook: Saad, Chakuza, Bushido]</t>
         </is>
       </c>
@@ -566,8 +708,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Hook: Bushido, Godsilla]Wir sind die Stimme der Nation, deswegen haben sie Angst vor unsUnd eben diese eine Angst hat dieses Land gebumstDoch eure Kinder stehen hinter uns, sie fühlen esWir sind die Hoffnung, die du nachts in deine Türen ritztWie das Echo der Nation, die keine Stimme hatWir sprechen das aus, was jeder in sich drinnen hatDenn du bist ganz allein, niemand hat hier Zeit für dichUnd keiner interessiert sich dafür, wenn du scheiße frisst[Part 1: Godsilla]Ich schreib es ihnen auf, weil sie es nicht glauben könnenIch schreib es auf, als würde ich es durch ihre Augen sehenDurch ihre Augen sehen, wie jeder hier aufwächstEs nicht lange aushält, ausflippt und austicktEs gibt Faustrecht, nicht mehr was die Eltern sagenDie Kids sind drauf und würden sogar ihre Lehrer schlagenHalt! Mach nicht den Fehler und verurteilt michMach mich nicht für all die Scheiße hier verantwortlichDie Antwort ist einfach, die Jugend hat AngstEs ist nicht meine Schuld, wenn sich keiner anpasstUnd wählen geht, um seine Stimme abzugebenDie Kids von heute sind Kids, die auf der Straße lebenIch spreche ihnen Mut zu, gebe ihnen ZuspruchWenn sie keinen Halt finden haben sie in Rap eine ZufluchtLieber Gott, gib ihnen bitte wieder ZuversichtDenn es gibt niemanden, niemanden, den du vergisst
-[Hook: Bushido, Godsilla][Part 1: Bushido]Und sie glauben es nicht, dass diese Kinder ihre Kinder sindSie hören mich und denken nur, dass ich der Winter binDenn für sie bin ich der Grund, warum die Schulen brennenUnd dass die kleinen Kids nicht mehr in die Schulen rennenSie sagen ich bin jeder Cent in jedem AutomatWeil jeder heute unter achtzehn schon ein Auto hatDoch was kann ich dafür, die Kinder haben keinen BockKeinen Schulabschluss, keinen Sinn, keinen JobUnd sie scheißen drauf, unsere Kinder dealen CrackZiehen Koks, fressen Pillen und lieben RapSie hören mehr auf mich, als auf ihr ElternhausUnd ziehen morgen schon mit vierzehn bei den Eltern ausDann vergessen sie es selber in die Hand zu nehmenDenn keiner hat es je gelernt seinen Mann zu stehenLieber Gott, gib ihnen endlich wieder ZuversichtDenn es gibt niemanden, niemanden, den du vergisst[Hook: Bushido, Godsilla]</t>
+          <t>[Hook: Bushido, Godsilla]
+Wir sind die Stimme der Nation, deswegen haben sie Angst vor uns
+Und eben diese eine Angst hat dieses Land gebumst
+Doch eure Kinder stehen hinter uns, sie fühlen es
+Wir sind die Hoffnung, die du nachts in deine Türen ritzt
+Wie das Echo der Nation, die keine Stimme hat
+Wir sprechen das aus, was jeder in sich drinnen hat
+Denn du bist ganz allein, niemand hat hier Zeit für dich
+Und keiner interessiert sich dafür, wenn du scheiße frisst
+[Part 1: Godsilla]
+Ich schreib es ihnen auf, weil sie es nicht glauben können
+Ich schreib es auf, als würde ich es durch ihre Augen sehen
+Durch ihre Augen sehen, wie jeder hier aufwächst
+Es nicht lange aushält, ausflippt und austickt
+Es gibt Faustrecht, nicht mehr was die Eltern sagen
+Die Kids sind drauf und würden sogar ihre Lehrer schlagen
+Halt! Mach nicht den Fehler und verurteilt mich
+Mach mich nicht für all die Scheiße hier verantwortlich
+Die Antwort ist einfach, die Jugend hat Angst
+Es ist nicht meine Schuld, wenn sich keiner anpasst
+Und wählen geht, um seine Stimme abzugeben
+Die Kids von heute sind Kids, die auf der Straße leben
+Ich spreche ihnen Mut zu, gebe ihnen Zuspruch
+Wenn sie keinen Halt finden haben sie in Rap eine Zuflucht
+Lieber Gott, gib ihnen bitte wieder Zuversicht
+Denn es gibt niemanden, niemanden, den du vergisst
+[Hook: Bushido, Godsilla]
+[Part 1: Bushido]
+Und sie glauben es nicht, dass diese Kinder ihre Kinder sind
+Sie hören mich und denken nur, dass ich der Winter bin
+Denn für sie bin ich der Grund, warum die Schulen brennen
+Und dass die kleinen Kids nicht mehr in die Schulen rennen
+Sie sagen ich bin jeder Cent in jedem Automat
+Weil jeder heute unter achtzehn schon ein Auto hat
+Doch was kann ich dafür, die Kinder haben keinen Bock
+Keinen Schulabschluss, keinen Sinn, keinen Job
+Und sie scheißen drauf, unsere Kinder dealen Crack
+Ziehen Koks, fressen Pillen und lieben Rap
+Sie hören mehr auf mich, als auf ihr Elternhaus
+Und ziehen morgen schon mit vierzehn bei den Eltern aus
+Dann vergessen sie es selber in die Hand zu nehmen
+Denn keiner hat es je gelernt seinen Mann zu stehen
+Lieber Gott, gib ihnen endlich wieder Zuversicht
+Denn es gibt niemanden, niemanden, den du vergisst
+[Hook: Bushido, Godsilla]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -619,8 +804,75 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Intro:Bushido und Eko Fresh]Yeah......GD...ErsguterjungeYeah......aiaiai...ohDer Erste Track, nach dem LungenrissDer Erste Track, nach den Muffelns.........bbbbräh........Okay.......Eko Fresh, das ist mein erster Track in Freiheit, alterStickle, Chakuza.....YeahMein Name ist Bushido, JungsEKO......YEAH[Part 1: Bushido und Eko Fresh]Ich komm aus´m Untergrund, Homie du bist ein VollidiotDer krasseste Kumpel von dir lebt aufm PonyhofSonny es ist so, wer behauptet EK ist totIch häng ihn sofort auf, mit meinem Gürtel hier von Jack&amp;JonesWenn du im Ghetto wohnst, weißt du dass der Mond sich verstecktFrag Estefania, mein Penis hat nach Honig geschmecktImmer noch wohn ich im Dreck, alles sieht nach Asphalt ausKomm ins Café, seit heute bin ich aus dem Knast herausIch bin ein freier Mann, ich bin ein echter StenzDu nur ein freier Mann, deine Frau ist second handDas hier sind Ek und Cem, das hier bin ich und SaadRede doch, keiner hört drauf was du Stricher sagstIch bin so explizit man nennt mich auch Directors CutUm mich bei dir zu rächen, schlepp ich deine Schwester abMach dich lustig, ich back mir noch ne SchokotorteUnd fick Collien Fernandes dann in ihre Schoko-PforteDas hier ist ohne Worte, das ist die ÜberdosisErst war ich Untergrund, heute steh ich über BrosisAn der Skyline leuchtet mein Name in LeuchtreklameIch stopf dein Adler aus, verbrenne deine Deutsche FahneDu kannst nichts, außer dich wie Amy's anzuziehenDein Vater ist dein Onkel, deine Mutter ist ein TrampolinDu bist kein Mann wie sie, du bist ein Kind wie erWir setzten Trends und du läufst nur einem hinterher
-[Hook: Bushido und Eko Fresh]Das ist der Deutsche Traum, ich bin ein guter JungeIch würde trotzdem rappen, ging ich morgen auch zu GrundeEko Fresh, ich bin der, der deine Mutter bumstWenn das alles hier nicht wäre, wäre ich wieder UntergrundIch bin ein guter Junge, das ist der Deutsche TraumIch würde auch Rappen, würde keine dieser Leute staunenSonny Black, ich komm vorbei mit hundert JungsUnd ist es morgen auch vorbei, wär ich wieder Untergrund[Part 2: Bushido und Eko Fresh]Es ist Kanacken-Rap, scheiß auf deine Battle-GruppeIch komm in deine Stadt und fick dich wie ne Tschechen-NutteWarum wir auf euch spucken, denn wir hassen jedenWas weißt du Kartoffel schon von einem krassen LebenDu willst vom Papst den Segen, ich will nach Mekka reisenZurückkommen und auf alle Deutschen Rapper scheißenAls könntest du was reißen, was in deiner Macht wärFür mich seid ihr so gefährlich wie ein WaschbärGute Nacht Fler, es ist aus mit dirDenn Sonny Black ist jetzt endlich wieder draußen...YeahDu wirst ausradiert, so wie ein alter TextKann es sein, dass mein Schwanz in deiner Alten stecktAlter Rap ruhig, ich schenk dir meine Kinder-FansRap ruhig, werde mit Raptile und Beginner FriendsDu bist ein blinder Mensch, du bist ein ScheißhaufenMit Hunderttausend kannst du dich im Knast freikaufenIhr alle bleibt draußen, Kanacken-Rap ist InnIhr gibt euch mühe, aber wir kacken die Texte hinIch hab den sechsten Sinn, du hast ne sechs in SportIch hab gerappt Junge, jetzt will ich mein cash sofortIch trag die CordonSport, ich trag die Bullrot-JeansDenk an uns, wenn du wieder weißes Pulver ziehstIch leb den German Dream, er ist ein guter GrundUnd wenn's nicht klappt, sind wir eben wieder Untergrund
+          <t>[Intro:Bushido und Eko Fresh]
+Yeah......GD...Ersguterjunge
+Yeah......aiaiai...oh
+Der Erste Track, nach dem Lungenriss
+Der Erste Track, nach den Muffelns
+.........bbbbräh........
+Okay.......Eko Fresh,das ist mein erster Track in Freiheit,alter
+Stickle, Chakuza.....Yeah
+Mein Name ist Bushido, Jungs
+EKO......YEAH
+[Part 1: Bushido und Eko Fresh]
+Ich komm aus´m Untergrund, Homie du bist ein Vollidiot
+Der krasseste Kumpel von dir lebt aufm Ponyhof
+Sonny es ist so,wer behauptet EK ist tot
+Ich häng ihn sofort auf, mit meinem Gürtel hier von Jack&amp;Jones
+Wenn du im Ghetto wohnst, weißt du dass der Mond sich versteckt
+Frag Estefania, mein Penis hat nach Honig geschmeckt
+Immer noch wohn ich im Dreck, alles sieht nach Asphalt aus
+Komm ins Café, seit heute bin ich aus dem Knast heraus
+Ich bin ein freier Mann, ich bin ein echter Stenz
+Du nur ein freier Mann, deine Frau ist second hand
+Das hier sind Ek und Cem, das hier bin ich und Saad
+Rede doch, keiner hört drauf was du Stricher sagst
+Ich bin so explizit man nennt mich auch Directors Cut
+Um mich bei dir zu rächen, schlepp ich deine Schwester ab
+Mach dich lustig, ich back mir noch ne Schokotorte
+Und fick Collien Fernandes dann in ihre Schoko-Pforte
+Das hier ist ohne Worte, das ist die Überdosis
+Erst war ich Untergrund, heute steh ich über Brosis
+An der Skyline leuchtet mein Name in Leuchtreklame
+Ich stopf dein Adler aus, verbrenne deine Deutsche Fahne
+Du kannst nichts, außer dich wie Amy's anzuziehen
+Dein Vater ist dein Onkel, deine Mutter ist ein Trampolin
+Du bist kein Mann wie sie, du bist ein Kind wie er
+Wir setzten Trends und du läufst nur einem hinterher
+[Hook: Bushido und Eko Fresh]
+Das ist der Deutsche Traum, ich bin ein guter Junge
+Ich würde trotzdem rappen, ging ich morgen auch zu Grunde
+Eko Fresh, ich bin der, der deine Mutter bumst
+Wenn das alles hier nicht wäre, wäre ich wieder Untergrund
+Ich bin ein guter Junge, das ist der Deutsche Traum
+Ich würde auch Rappen, würde keine dieser Leute staunen
+Sonny Black,ich komm vorbei mit hundert Jungs
+Und ist es morgen auch vorbei, wär ich wieder Untergrund
+[Part 2: Bushido und Eko Fresh]
+Es ist Kanacken-Rap, scheiß auf deine Battle-Gruppe
+Ich komm in deine Stadt und fick dich wie ne Tschechen-Nutte
+Warum wir auf euch spucken, denn wir hassen jeden
+Was weißt du Kartoffel schon von einem krassen Leben
+Du willst vom Papst den Segen, ich will nach Mekka reisen
+Zurückkommen und auf alle Deutschen Rapper scheißen
+Als könntest du was reißen, was in deiner Macht wär
+Für mich seid ihr so gefährlich wie ein Waschbär
+Gute Nacht Fler, es ist aus mit dir
+Denn Sonny Black ist jetzt endlich wieder draußen...Yeah
+Du wirst ausradiert, so wie ein alter Text
+Kann es sein, dass mein Schwanz in deiner Alten steckt
+Alter Rap ruhig, ich schenk dir meine Kinder-Fans
+Rap ruhig, werde mit Raptile und Beginner Friends
+Du bist ein blinder Mensch, du bist ein Scheißhaufen
+Mit Hunderttausend kannst du dich im Knast freikaufen
+Ihr alle bleibt draußen, Kanacken-Rap ist Inn
+Ihr gibt euch mühe, aber wir kacken die Texte hin
+Ich hab den sechsten Sinn, du hast ne sechs in Sport
+Ich hab gerappt Junge, jetzt will ich mein cash sofort
+Ich trag die CordonSport, ich trag die Bullrot-Jeans
+Denk an uns, wenn du wieder weißes Pulver ziehst
+Ich leb den German Dream, er ist ein guter Grund
+Und wenn's nicht klappt, sind wir eben wieder Untergrund
 [Hook: Bushido und Eko Fresh](x2)</t>
         </is>
       </c>
@@ -673,7 +925,45 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Part 1]Mach deine Augen zu mein Kind, bitte schlaf einIch verspreche, du wirst nie wieder im Schlaf weinenIch bin ein Engel, der nie wieder aus deinem Zimmer weichtWeil dein Hilfeschrei bis hoch in den Himmel reichtGott hat mich geschickt, um dir deine Angst zu nehmenSchenk mir dein Vertrauen, die Träume werden angenehmGlaub daran, dass dieser Engel hier dich lieb hatUnd schon morgen spielst du glücklich auf dem SpielplatzIch bin jetzt da für dich, guck hier kommt nichts Böses reinNimm mich in dein Herz und du wirst immer fröhlich seinWeißt du noch, du hast Mama schon nach mir gefragtUnd jetzt bin ich hier, Nacht für Nacht, Tag für TagDu hast nen Freund gefunden, jemand, der dich begleitetJemand, der, wenn du traurig bist, auch gerne mit der leidetFühlst du langsam wie der Schatten zu nem Lichtblick wirdEs gibt keinen Tag an dem der liebe Gott dich Kind nicht hört[Hook](x2)Ich bin der Engel, der über die Kinder wachtDer Engel, der immer da ist in der NachtDer Engel, der, wenn du willst, auf deiner Schulter sitztGib mir die Hand und du siehst, dass du nicht Schuld dran bist[Part 2]Hab keine Angst mehr, dein Kind ist in guten HändenIch bin jetzt da für sie und alles wird im Guten endenDer liebe Gott hat dich gehört, als du gebetet hastEr hat mich hergeschickt, gute Frau ich regele dasGeh hoch und leg dich schlafen, denk dran ich kümmere michEs ist normal, dass man Angst hat, wenn man jünger istSuch deinen Ehemann, sag ihm, dass er Fehler machtVielleicht kommt er zur Vernunft und wird wieder wachEs geht um euer Kind, die Kleine braucht jetzt beide SeitenTut ihr nen Gefallen und vergesst jetzt eure StreitigkeitenDas ist Familie und ihr tragt VerantwortungIhr müsst euch dran gewöhnen, an die neue RangordnungSie ist ein kleiner Mensch, sie hat ein kleines HerzDoch ihre Angst nimmt von euch leider keiner ernstGlaubt an die Liebe jetzt und tut euch beide besser zusammenHand in Hand durch das Leben und ihr bessert euch dann
+          <t>[Part 1]
+Mach deine Augen zu mein Kind, bitte schlaf ein
+Ich verspreche, du wirst nie wieder im Schlaf weinen
+Ich bin ein Engel, der nie wieder aus deinem Zimmer weicht
+Weil dein Hilfeschrei bis hoch in den Himmel reicht
+Gott hat mich geschickt, um dir deine Angst zu nehmen
+Schenk mir dein Vertrauen, die Träume werden angenehm
+Glaub daran, dass dieser Engel hier dich lieb hat
+Und schon morgen spielst du glücklich auf dem Spielplatz
+Ich bin jetzt da für dich, guck hier kommt nichts Böses rein
+Nimm mich in dein Herz und du wirst immer fröhlich sein
+Weißt du noch, du hast Mama schon nach mir gefragt
+Und jetzt bin ich hier, Nacht für Nacht, Tag für Tag
+Du hast nen Freund gefunden, jemand, der dich begleitet
+Jemand, der, wenn du traurig bist, auch gerne mit der leidet
+Fühlst du langsam wie der Schatten zu nem Lichtblick wird
+Es gibt keinen Tag an dem der liebe Gott dich Kind nicht hört
+[Hook](x2)
+Ich bin der Engel, der über die Kinder wacht
+Der Engel, der immer da ist in der Nacht
+Der Engel, der, wenn du willst, auf deiner Schulter sitzt
+Gib mir die Hand und du siehst, dass du nicht Schuld dran bist
+[Part 2]
+Hab keine Angst mehr, dein Kind ist in guten Händen
+Ich bin jetzt da für sie und alles wird im Guten enden
+Der liebe Gott hat dich gehört, als du gebetet hast
+Er hat mich hergeschickt, gute Frau ich regele das
+Geh hoch und leg dich schlafen, denk dran ich kümmere mich
+Es ist normal, dass man Angst hat, wenn man jünger ist
+Such deinen Ehemann, sag ihm, dass er Fehler macht
+Vielleicht kommt er zur Vernunft und wird wieder wach
+Es geht um euer Kind, die Kleine braucht jetzt beide Seiten
+Tut ihr nen Gefallen und vergesst jetzt eure Streitigkeiten
+Das ist Familie und ihr tragt Verantwortung
+Ihr müsst euch dran gewöhnen, an die neue Rangordnung
+Sie ist ein kleiner Mensch, sie hat ein kleines Herz
+Doch ihre Angst nimmt von euch leider keiner ernst
+Glaubt an die Liebe jetzt und tut euch beide besser zusammen
+Hand in Hand durch das Leben und ihr bessert euch dann
 [Hook](x4)</t>
         </is>
       </c>
@@ -726,8 +1016,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oh mein GottYeah[Part 1: Bushido]Wer hätte das gedacht und sie nennn mich RockefellerIch soll was Gutes tun, ich hab für dich n Job im KellerIch muss ne Menge ändern, Homie ich hab LangeweileUnd deine Mutter verdient gut, denn sie hat lange BeineJa wir sind kranke Schweine, ich schreib dir ne ganze ZeileWeil ich mit deinem Onkel schon seit langem deine Tante teileJa wir sind sozusagen in-offiziell verwandtIch lager Ecstasy in deinem KinderschrankIch hab so komische Stimmen in meinem HinterkopfDie dafür sorgen das ich all deine Kinder boxIch bin kein Inder doch, deine Mutter ist mir heiligDie dicke Kuh ist schon seit 70 Jahren über 30Tut mir Leid ich, nehm es wirklich gern zurückAuch dieser Satz, dass sich dein schwuler Vater gerne bücktEs soll ja Leute geben, die nicht meine Meinung teilenDie auch behaupten meine Fans wären klein und weinenIch find mich sehr erwachsen, ich bin schon 27Ich geb es zu ich bin der Junge der in Kiel an Strand pisstIch mach Musik bis deine Rapper aus dem Herz blutenDen deine Eltern sind die Wildecker Herzbuben[Hook: Saad &amp; Bushido]Es fängt so langsam an und bis nach AmsterdamRufen die Mädchen: "Baba Saad du bist ein ganzer Mann"Was wollt ihr den von uns? "Jungs wir wolln euch nackt sehn"Doch tut mir Leid uns beide gibt es erst ab 18!Es fängt so langsam an und bis nach AmsterdamRufen die Mädchen: "Sonny Black du bist ein ganzer Mann"Was wollt ihr den von uns? "Jungs wir wolln euch nackt sehn"Doch tut mir Leid uns beide gibt es erst ab 18!
-[Part 2: Saad]Ich komm in deine Hood als wär mein Name Ja RuleZum Rendez-Vous fick ich deine Ma im FahrstuhlIch verdien' so viel, Homie das ist unverschämtEgal was du erzählst, ich bin in der PubertätIhr seit nicht von Bedeutung für mich, du bist kein PlayboyEs sind höchstens Boyzone und ich, JungeEs ist nicht ungewohnt, du bist ein HundesohnGuck mich an ich kann verreisen mit nem StundenlohnWo bist du Rapper hin, ich fick deine CommunityDu bist so dick und hässlich, wie die Schlampe LumideeGewöhn dich dran das die Schelle zur Begrüßung dientIch bin erst 19 Jahre alt und du hast HämorridenThema Wechsel bitte, ich bin ein HeckenschützeDiese Hits schreib ich wenn ich auf Toilette sitzeDie ganzen kleine Flittchen weinen wenn mein Schweiß tropftIch bin so cool Homie, kalt wie ein EisblockIch hab so viele Fans und ich danke Gott dafürMein Album wird sogar gehört an der Côte d'AzurErsguterjunge, ich mach mein Wunder warGuck mich an und sag dieser Junge hier ist unnormal[Hook: Saad &amp; Bushido](x2)</t>
+          <t>Oh mein Gott
+Yeah
+[Part 1: Bushido]
+Wer hätte das gedacht und sie nennn mich Rockefeller
+Ich soll was Gutes tun, ich hab für dich n Job im Keller
+Ich muss ne Menge ändern, Homie ich hab Langeweile
+Und deine Mutter verdient gut, denn sie hat lange Beine
+Ja wir sind kranke Schweine, ich schreib dir ne ganze Zeile
+Weil ich mit deinem Onkel schon seit langem deine Tante teile
+Ja wir sind sozusagen in-offiziell verwandt
+Ich lager Ecstasy in deinem Kinderschrank
+Ich hab so komische Stimmen in meinem Hinterkopf
+Die dafür sorgen das ich all deine Kinder box
+Ich bin kein Inder doch, deine Mutter ist mir heilig
+Die dicke Kuh ist schon seit 70 Jahren über 30
+Tut mir Leid ich, nehm es wirklich gern zurück
+Auch dieser Satz, dass sich dein schwuler Vater gerne bückt
+Es soll ja Leute geben, die nicht meine Meinung teilen
+Die auch behaupten meine Fans wären klein und weinen
+Ich find mich sehr erwachsen, ich bin schon 27
+Ich geb es zu ich bin der Junge der in Kiel an Strand pisst
+Ich mach Musik bis deine Rapper aus dem Herz bluten
+Den deine Eltern sind die Wildecker Herzbuben
+[Hook: Saad &amp; Bushido]
+Es fängt so langsam an und bis nach Amsterdam
+Rufen die Mädchen:"Baba Saad du bist ein ganzer Mann"
+Was wollt ihr den von uns?"Jungs wir wolln euch nackt sehn"
+Doch tut mir Leid uns beide gibt es erst ab 18!
+Es fängt so langsam an und bis nach Amsterdam
+Rufen die Mädchen: "Sonny Black du bist ein ganzer Mann"
+Was wollt ihr den von uns? "Jungs wir wolln euch nackt sehn"
+Doch tut mir Leid uns beide gibt es erst ab 18!
+[Part 2: Saad]
+Ich komm in deine Hood als wär mein Name Ja Rule
+Zum Rendez-Vous fick ich deine Ma im Fahrstuhl
+Ich verdien' so viel, Homie das ist unverschämt
+Egal was du erzählst, ich bin in der Pubertät
+Ihr seit nicht von Bedeutung für mich, du bist kein Playboy
+Es sind höchstens Boyzone und ich, Junge
+Es ist nicht ungewohnt, du bist ein Hundesohn
+Guck mich an ich kann verreisen mit nem Stundenlohn
+Wo bist du Rapper hin, ich fick deine Community
+Du bist so dick und hässlich, wie die Schlampe Lumidee
+Gewöhn dich dran das die Schelle zur Begrüßung dient
+Ich bin erst 19 Jahre alt und du hast Hämorriden
+Thema Wechsel bitte, ich bin ein Heckenschütze
+Diese Hits schreib ich wenn ich auf Toilette sitze
+Die ganzen kleine Flittchen weinen wenn mein Schweiß tropft
+Ich bin so cool Homie, kalt wie ein Eisblock
+Ich hab so viele Fans und ich danke Gott dafür
+Mein Album wird sogar gehört an der Côte d'Azur
+Ersguterjunge, ich mach mein Wunder war
+Guck mich an und sag dieser Junge hier ist unnormal
+[Hook: Saad &amp; Bushido](x2)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -779,8 +1121,67 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Part 1]Ich komm mit SaadIch sage dir das Leben ist hartIch geh hin und schlagJeden deiner dämlichen StarsKeiner von euch hat sich je in meine Gegend gewagtVersuch es und du liegst bald ohne deinen Schädel im GrabHartz IV macht mich reich, ich hab nichts gegen den StaatAllen geht es schlecht, ich wische mir mit Knete den ArschErsguterjunge kommt, ich hab nen LabelvertragWenn ich schieße Junge, kommen dir die Tränen vom GasIch hab geholzt und nenn es danach Training im ParkJe härter wie ich rappe kommen alle Mädchen in fahrtIch bin Araber, wir sind voller Ehre und hartWillst du Krieg, dann nehme ich mir die Gewehre und ladJunge der Nebel ist schwarz an jedem elenden TagKomm nach Tempelhof, guck was für Probleme ich habGuck wie jeder dieser Missgeburten kläglich versagtDu willst haten, hate irgendwen, doch hate nicht Saad, du Bastard[Hook](x2)Es ist wie ein Tag, an dem für euch die Sonne nicht scheintIch will dein Album nicht mehr hörn es ist so comedylikeIch komm und sie schrein, sie laufen weg doch kommen nicht weitIch schlag auf deine Freunde ein, mit Beton oder Stein
-[Part 2]Ich komm mit SaadIch sage dir das Leben ist hartFrag meinen Therapeuten, früher hab ich wenig gesagtIch war schüchtern und ich meinte nur ich schäm mich totalHeute tret ich auf und zeige meinen Penis im Saal, YeahIch hätte den Erfolg eh nicht geplantUnd mach's für meine Jungs, denn sie liegen ewig im SargEs ist Kanackenrap, ihr geht raus, ich geh in die ChartsIch bin fame und befehle deiner Lady "jetzt Blas"Ich liebe meine Fans, denn nur sie verstehen meine ArtDu hast gewonnen, komm ins Ghetto und erleb mich privatDu Esel vergrab dich und deine schäbigen PartsDu machst Faxen wie ein Affe doch ich nehm dich nicht wahrIch hin verwundet und all ihr Tunten werdet verarschtIch nehm einfach so Anlauf und spring quer durch'n GlasGuck mich an, ich kauf mir heute nen Mercedes in PragWie oft soll ich dir noch sagen, Oh, das Leben ist hart, du Bastard[Hook](x2)[Part 3]Ich komm mit SaadIch sage dir das Leben ist hartHör mein Album, es ist so, als ob man Aliens sahDu kannst es nicht glauben, Junge, denn das Leben ist hartDa ich nicht weiß, was mit deinem Mädchen geschahUnd ich dachte mir wir kommen uns eh nicht so nahDas nächste was ich weiß ist, sie hat meinen Penis im ArschEs gibt keinen Player wie Saad, Junge, ich gebe nicht nachBringe das Game zurück, wieder in die Eighties und BAAM!Du bist nicht so wie ich, kleiner, du bist lediglich zartIch bin der, der dich auf deiner Abi-Fete erstachIch bin dieser Junge, ihr seid alle eklig und armSiehe Bin Laden, ich denk ich hätt's ähnlich getanEure Rapper kriegen Angst, denn sie sehen die GefahrUnd heuern Detektive an, so sie Edel und StarckIch bin hart, ich denke über Fehler nicht nachAll die Gegner haben jetzt Respekt, das Leben ist hart, du Bastard
+          <t>[Part 1]
+Ich komm mit Saad
+Ich sage dir das Leben ist hart
+Ich geh hin und schlag
+Jeden deiner dämlichen Stars
+Keiner von euch hat sich je in meine Gegend gewagt
+Versuch es und du liegst bald ohne deinen Schädel im Grab
+Hartz IV macht mich reich, ich hab nichts gegen den Staat
+Allen geht es schlecht, ich wische mir mit Knete den Arsch
+Ersguterjunge kommt, ich hab nen Labelvertrag
+Wenn ich schieße Junge, kommen dir die Tränen vom Gas
+Ich hab geholzt und nenn es danach Training im Park
+Je härter wie ich rappe kommen alle Mädchen in fahrt
+Ich bin Araber, wir sind voller Ehre und hart
+Willst du Krieg, dann nehme ich mir die Gewehre und lad
+Junge der Nebel ist schwarz an jedem elenden Tag
+Komm nach Tempelhof, guck was für Probleme ich hab
+Guck wie jeder dieser Missgeburten kläglich versagt
+Du willst haten, hate irgendwen, doch hate nicht Saad, du Bastard
+[Hook](x2)
+Es ist wie ein Tag, an dem für euch die Sonne nicht scheint
+Ich will dein Album nicht mehr hörn es ist so comedylike
+Ich komm und sie schrein, sie laufen weg doch kommen nicht weit
+Ich schlag auf deine Freunde ein, mit Beton oder Stein
+[Part 2]
+Ich komm mit Saad
+Ich sage dir das Leben ist hart
+Frag meinen Therapeuten, früher hab ich wenig gesagt
+Ich war schüchtern und ich meinte nur ich schäm mich total
+Heute tret ich auf und zeige meinen Penis im Saal, Yeah
+Ich hätte den Erfolg eh nicht geplant
+Und mach's für meine Jungs, denn sie liegen ewig im Sarg
+Es ist Kanackenrap, ihr geht raus, ich geh in die Charts
+Ich bin fame und befehle deiner Lady "jetzt Blas"
+Ich liebe meine Fans, denn nur sie verstehen meine Art
+Du hast gewonnen, komm ins Ghetto und erleb mich privat
+Du Esel vergrab dich und deine schäbigen Parts
+Du machst Faxen wie ein Affe doch ich nehm dich nicht wahr
+Ich hin verwundet und all ihr Tunten werdet verarscht
+Ich nehm einfach so Anlauf und spring quer durch'n Glas
+Guck mich an, ich kauf mir heute nen Mercedes in Prag
+Wie oft soll ich dir noch sagen, Oh, das Leben ist hart, du Bastard
+[Hook](x2)
+[Part 3]
+Ich komm mit Saad
+Ich sage dir das Leben ist hart
+Hör mein Album, es ist so, als ob man Aliens sah
+Du kannst es nicht glauben, Junge, denn das Leben ist hart
+Da ich nicht weiß, was mit deinem Mädchen geschah
+Und ich dachte mir wir kommen uns eh nicht so nah
+Das nächste was ich weiß ist, sie hat meinen Penis im Arsch
+Es gibt keinen Player wie Saad, Junge, ich gebe nicht nach
+Bringe das Game zurück, wieder in die Eighties und BAAM!
+Du bist nicht so wie ich, kleiner, du bist lediglich zart
+Ich bin der, der dich auf deiner Abi-Fete erstach
+Ich bin dieser Junge, ihr seid alle eklig und arm
+Siehe Bin Laden, ich denk ich hätt's ähnlich getan
+Eure Rapper kriegen Angst, denn sie sehen die Gefahr
+Und heuern Detektive an, so sie Edel und Starck
+Ich bin hart, ich denke über Fehler nicht nach
+All die Gegner haben jetzt Respekt, das Leben ist hart, du Bastard
 [Hook](x2)</t>
         </is>
       </c>
@@ -833,10 +1234,93 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Hook: Bushido]Ich bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindNummer eins, okay[Part 1: Bushido]Ich hasse diesen Ort und die Wände sind kahlVom Gewichte heben habe ich langsam Hände aus StahlDenke nicht nach, warum ich mich in die Scheiße reit'Ich hasse euer Essen, hasse euer SchweinefleischDenn keiner weiß, hier ist es ungenießbarTeile mir meine Matratze mit dem UngezieferUnd schon wieder frage ich mich, wie ist das nur gekommenAuf einmal stecke ich hier in einer blauen UniformHier gibt es nur Beton, die Wände AnthrazitDas einzige, was dir hier hilft, ist deine FantasieIch schreibe nen Brief, während mein Mithäftling sein Gras verticktMein Zellennachbar wurde gestern in den Arsch geficktIch warte bis die Zeit endlich vorüber streichtBin am Telefon, ein Wort von meinen Brüdern reichtDu glaubst ich übertreib', Junge, ich untertreib'Guck mich an, ich bin der Staatsfeind Nummer eins
-[Hook: Bushido]Ich bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindNummer eins, okay[Verse 2: Bushido]Wer ist jetzt krass von denen? Wer will mir was erzählen?Ich habe im Knast gelebt und diesen Hass gesehenJetzt könnt ihr Spasten gehen, ihr habt euch ausgetobtIch drehe einmal am Tag die Runden auf dem HofUnd ich tausche Brot gegen Tabak und KippenUnd suche nachts, wenn ich schlafe, meine Mama im KissenDie anderen Kiffen, auf diese Leute scheiße ichGuck, ich sitze jetzt in Zelle hundertneununddreißigHeute weiß ich, ich war noch lange nicht readyIch grüße meine Knastis, Günther, Harry und EddyZahle keinen Penny, denn ich gewinne beim WürfelnHier findest du Araber und hier findest du TürkenDas Ding ist, wir dürfen zweimal die Woche zum DuschenDie Wächter kommen, warum? Ich habe sie doch nicht gerufenSie kamen mich noch nicht besuchen und meine Mutter weintGuck mich an, ich bin der Staatsfeind Nummer eins
-[Hook: Bushido]Ich bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindNummer eins, okay[Part 3: Bushido]Du bist kein Gangster, du hast nur dein Leben verpasstDie deutsche Welle findet leider keinen Weg in den KnastIch lebe hier anstatt wie du meinen Arsch zu verkaufenFrage mich, was machen D-Bo, Eko und Chakuza da draußenGuck mal, wir brauchen jetzt jeden Tag ein Wunder hierJeder hier drinnen ist am Ende und unrasiertJunge, hier stehst du jeden Tag auf um zehn vor sechsDir fehlt der Sex, egal, du hältst am Leben festDu gehst nicht weg, Autogramme sind hier leichte KohleAm ersten Tag bekommst du Zahnbürste und zwei KondomeDu kannst nicht ohne Jenna Jameson-Poster auf dem KloHunderttausend Euro, das ist eine große KautionHier ist es so, hier drinnen wirst du hart und cleverHier tauscht du deine Bravo ein gegen ein Glas NutellaDer Tag wird heller, bis endlich diese Wunde heiltGuck mich an, ich bin der Staatsfeind Nummer eins
-[Hook: Bushido]Ich bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindIch bin wieder on Air, guck her, ich bin wieder on airIch bin der StaatsfeindNummer eins, okay</t>
+          <t>[Hook: Bushido]
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Nummer eins, okay
+[Part 1: Bushido]
+Ich hasse diesen Ort und die Wände sind kahl
+Vom Gewichte heben habe ich langsam Hände aus Stahl
+Denke nicht nach, warum ich mich in die Scheiße reit'
+Ich hasse euer Essen, hasse euer Schweinefleisch
+Denn keiner weiß, hier ist es ungenießbar
+Teile mir meine Matratze mit dem Ungeziefer
+Und schon wieder frage ich mich, wie ist das nur gekommen
+Auf einmal stecke ich hier in einer blauen Uniform
+Hier gibt es nur Beton, die Wände Anthrazit
+Das einzige, was dir hier hilft, ist deine Fantasie
+Ich schreibe nen Brief, während mein Mithäftling sein Gras vertickt
+Mein Zellennachbar wurde gestern in den Arsch gefickt
+Ich warte bis die Zeit endlich vorüber streicht
+Bin am Telefon, ein Wort von meinen Brüdern reicht
+Du glaubst ich übertreib', Junge, ich untertreib'
+Guck mich an, ich bin der Staatsfeind Nummer eins
+[Hook: Bushido]
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Nummer eins, okay
+[Verse 2: Bushido]
+Wer ist jetzt krass von denen? Wer will mir was erzählen?
+Ich habe im Knast gelebt und diesen Hass gesehen
+Jetzt könnt ihr Spasten gehen, ihr habt euch ausgetobt
+Ich drehe einmal am Tag die Runden auf dem Hof
+Und ich tausche Brot gegen Tabak und Kippen
+Und suche nachts, wenn ich schlafe, meine Mama im Kissen
+Die anderen Kiffen, auf diese Leute scheiße ich
+Guck, ich sitze jetzt in Zelle hundertneununddreißig
+Heute weiß ich, ich war noch lange nicht ready
+Ich grüße meine Knastis, Günther, Harry und Eddy
+Zahle keinen Penny, denn ich gewinne beim Würfeln
+Hier findest du Araber und hier findest du Türken
+Das Ding ist, wir dürfen zweimal die Woche zum Duschen
+Die Wächter kommen, warum? Ich habe sie doch nicht gerufen
+Sie kamen mich noch nicht besuchen und meine Mutter weint
+Guck mich an, ich bin der Staatsfeind Nummer eins
+[Hook: Bushido]
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Nummer eins, okay
+[Part 3: Bushido]
+Du bist kein Gangster, du hast nur dein Leben verpasst
+Die deutsche Welle findet leider keinen Weg in den Knast
+Ich lebe hier anstatt wie du meinen Arsch zu verkaufen
+Frage mich, was machen D-Bo, Eko und Chakuza da draußen
+Guck mal, wir brauchen jetzt jeden Tag ein Wunder hier
+Jeder hier drinnen ist am Ende und unrasiert
+Junge, hier stehst du jeden Tag auf um zehn vor sechs
+Dir fehlt der Sex, egal, du hältst am Leben fest
+Du gehst nicht weg, Autogramme sind hier leichte Kohle
+Am ersten Tag bekommst du Zahnbürste und zwei Kondome
+Du kannst nicht ohne Jenna Jameson-Poster auf dem Klo
+Hunderttausend Euro, das ist eine große Kaution
+Hier ist es so, hier drinnen wirst du hart und clever
+Hier tauscht du deine Bravo ein gegen ein Glas Nutella
+Der Tag wird heller, bis endlich diese Wunde heilt
+Guck mich an, ich bin der Staatsfeind Nummer eins
+[Hook: Bushido]
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Ich bin wieder on Air, guck her, ich bin wieder on air
+Ich bin der Staatsfeind
+Nummer eins, okay</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -888,8 +1372,55 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Songtext zu „Sieh in meine Augen“ ft. D-Bo][Part 1: Bushido]Man sagt die Augen sind der Spiegel meiner SeeleUnd deswegen ist es dunkel, an dem Ort, an dem ich lebeIn dem kleinen Platz hier drinnen ist es HerbstUnd an die Wand schreib ich mit Blut einen VersFlieg, wenn du fliegen kannst, lieb, wenn du lieben kannstWeil du nie kriegst, was du kriegen kannstDort kommen die Fremden und sie suchen den GrößtenHör auf dein Herz, denn du musst wählen zwischen Guten und BösenMama, das ist die Nacht, in der wir kämpfenUnd sie zwingen mich dazu, deswegen hasse ich die MenschenIn diesem harten Leben, gibt es keinen OrtAn dem ich frei sein kann, außer dann im Garten EdenIch hab Blasen an den Füßen, weil ich barfuß gehWenn ich laufe, wein ich Salz, denn dieser Pfad tut wehIch wünsche, Gott gibt mir ein Pflaster, damit Wunden heilenHalte durch, denn man muss stark in diesen Stunden seinHier, nimm meine HandBitte bleib bei mir, ich verliere mein' VerstandSie fangen meinen Mut und brechen meinen WiderstandDenn sie haben Angst, weil ich Hoffnung in den Liedern fand[Hook: Vocal Sample]Look in these eyes, you'll see the darkLook in these eyes, you'll see the darkLook in these eyes, you'll see the darkThat little space inside my heart
-[Part 2: D-Bo]Komm und öffne deine Seele für die Tiefe meines BlickesEine Frage die mich quält: Warum in mir drinnen Krieg istWarum D-Bo nicht beliebt ist, wünsch mir Schlechtes und ich krieg esHörst du diesen Beat es flasht mich und ich lieb esWie die Kälte, die mir Kraft gibt, meine Welt, sie wird verachtetBin kein Held, der in die Schlacht zieht, Hoffnung fällt, wenn man die Nacht hebtWer mit dem Teufel schauspielt und als Erster dann auch nachgibtWird wie ich ein kleiner Junge, der nächtelang dann wachliegtWerde kalt, so kalt, dass schon mein Herz erfriertBin alt, so alt, dass man den Schmerz verliertDass Kummer meine Hoffnung bricht, mein Lebenswille fast erlischtEin Nebel voller Sorge meine Zukunftsträume ganz verwischtIhr Wichser habt mich umgebracht, bis gestern war ich jung und roughEin Pfiff in meiner Nachbarschaft und meine ganze Crew erwachtDunkle Augen, schwarze Kraft, Sorgen mildern ihre MachtDas hat Mr. Hartz geschafft, danke Deutschland, gute NachtDu hast unsere Wut entfacht und meinem Herz den Tod gebrachtEin Hilfeschrei von unten, aber du hast dich nur totgelachtUnd nur weil ich höflich bin sag ich weiter "Guten Tag"Ich brauch ein Pflaster für die Seele, weil ich nicht verbluten mag[Hook: Vocal Sample]Look in these eyes, you'll see the darkLook in these eyes, you'll see the darkLook in these eyes, you'll see the darkThat little space inside my heartLook in these eyes, you'll see the darkLook in these eyes, you'll see the darkLook in these eyes, you'll see the darkThat little space inside my heart</t>
+          <t>[Songtext zu „Sieh in meine Augen“ ft. D-Bo]
+[Part 1: Bushido]
+Man sagt die Augen sind der Spiegel meiner Seele
+Und deswegen ist es dunkel, an dem Ort, an dem ich lebe
+In dem kleinen Platz hier drinnen ist es Herbst
+Und an die Wand schreib ich mit Blut einen Vers
+Flieg, wenn du fliegen kannst, lieb, wenn du lieben kannst
+Weil du nie kriegst, was du kriegen kannst
+Dort kommen die Fremden und sie suchen den Größten
+Hör auf dein Herz, denn du musst wählen zwischen Guten und Bösen
+Mama, das ist die Nacht, in der wir kämpfen
+Und sie zwingen mich dazu, deswegen hasse ich die Menschen
+In diesem harten Leben, gibt es keinen Ort
+An dem ich frei sein kann, außer dann im Garten Eden
+Ich hab Blasen an den Füßen, weil ich barfuß geh
+Wenn ich laufe, wein ich Salz, denn dieser Pfad tut weh
+Ich wünsche, Gott gibt mir ein Pflaster, damit Wunden heilen
+Halte durch, denn man muss stark in diesen Stunden sein
+Hier, nimm meine Hand
+Bitte bleib bei mir, ich verliere mein' Verstand
+Sie fangen meinen Mut und brechen meinen Widerstand
+Denn sie haben Angst, weil ich Hoffnung in den Liedern fand
+[Hook: Vocal Sample]
+Look in these eyes, you'll see the dark
+Look in these eyes, you'll see the dark
+Look in these eyes, you'll see the dark
+That little space inside my heart
+[Part 2: D-Bo]
+Komm und öffne deine Seele für die Tiefe meines Blickes
+Eine Frage die mich quält: Warum in mir drinnen Krieg ist
+Warum D-Bo nicht beliebt ist, wünsch mir Schlechtes und ich krieg es
+Hörst du diesen Beat es flasht mich und ich lieb es
+Wie die Kälte, die mir Kraft gibt, meine Welt, sie wird verachtet
+Bin kein Held, der in die Schlacht zieht, Hoffnung fällt, wenn man die Nacht hebt
+Wer mit dem Teufel schauspielt und als Erster dann auch nachgibt
+Wird wie ich ein kleiner Junge, der nächtelang dann wachliegt
+Werde kalt, so kalt, dass schon mein Herz erfriertBin alt, so alt, dass man den Schmerz verliertDass Kummer meine Hoffnung bricht, mein Lebenswille fast erlischtEin Nebel voller Sorge meine Zukunftsträume ganz verwischtIhr Wichser habt mich umgebracht, bis gestern war ich jung und roughEin Pfiff in meiner Nachbarschaft und meine ganze Crew erwachtDunkle Augen, schwarze Kraft, Sorgen mildern ihre MachtDas hat Mr. Hartz geschafft, danke Deutschland, gute Nacht
+Du hast unsere Wut entfacht und meinem Herz den Tod gebrachtEin Hilfeschrei von unten, aber du hast dich nur totgelacht
+Und nur weil ich höflich bin sag ich weiter "Guten Tag"
+Ich brauch ein Pflaster für die Seele, weil ich nicht verbluten mag
+[Hook: Vocal Sample]
+Look in these eyes, you'll see the dark
+Look in these eyes, you'll see the dark
+Look in these eyes, you'll see the dark
+That little space inside my heart
+Look in these eyes, you'll see the dark
+Look in these eyes, you'll see the dark
+Look in these eyes, you'll see the dark
+That little space inside my heart</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -941,8 +1472,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Intro: J.R. Writer]This Electro Ghetto Shit is coming, it's crazy manUh uh, yeah, okayDipset, yo, let's do it man!I show ya niggas how to one take this joint right here, okay[Verse 1: J.R. Writer]Yo, you might catch me in the BenzoPulling on the endoOr I'm V.I.P. pulling on a bimboAs far as rims go, my car is like the gun normI'm Menace II Society, I stay on the rims yaThis the intro, the intro, the introThe pimp hoes, the bling clothes, the tints on the window (bling!)You know my M.O., [?] down the [?]The party hard, the marli grasSqueezing on an M4/nymphoI don't need no infoCause trust me the play is papers some like ya'll do see me king goesObliviously? I spin dope (chi-ching!), I'm on another levelHow you gon' compare Maserati to a pimps ho?I'm the [?] from Jim Jones(?), flashing when I'm out cash[?] all tight but I'm laughing at the [?] cause I'm [?] at the [?]Magic stick down the throat like I'm try to pull a damn rabbit down the mouth, ho![Hook: Bushido and (J.R. Writer)]Bushido (Dipset)Dies hier ist mein Ami-FeatureDu kriegst die Knochen zum Frühstück, wenn deine Mami lieb warIhr seid wie Harferflocken, ich bin ein harter BrockenIch fick deine Schwester, wenn deine Eltern im Theater hocken(2x)
-[Verse 2: Bushido]Ich bin ein HooliganDu bist nur der schwule FanWenn ich mein Geld zähle, musst du in die Schule renn'Lass mal wetten, wer von uns beiden den Dicksten hatDu kannst dein' Kaviar bestlelen, ich ess' bei Pizza HutIch bin so vielfältig, wie Seiten eines WürfelsMit so viel Power und Disziplin wie ein Ninja TurtleHör mal hin, jeder Satz sitzt wie angegossenMukkst du einmal auf, wirst du einfach angeschossenGeh deine Brüder holen, ihr könnt mich überholenUnd tortzzdem schmuggel' ich ein Kilo Koks über PolenIch bin der deutsche Panzer, wo ist dien ZollbeamterIch mach' mein Album und betreibe damit PropagandaIhr könnt jetzt Welle schieben, ihr könnt mich therapierenDoch Jungs, ihr braucht jetzt Antipickelcreme wie ClerasilIhr wohnt im Dschungel leiderUnd kennt nur dumme WeiberFrag' deine Mama mein Freund, ich bin ein WunderheilerDu wirst abgeschoben, dein Visum ist abgelaufenHier in Berlin kann man sich auf dem Schulhof Waffen kaufenIch bin nicht zu schlagen Homie, wie in HollywoodDeine Freundin ist ein kleines Kücken, dass auf Comics guckt[Hook](4x)</t>
+          <t>[Intro: J.R. Writer]
+This Electro Ghetto Shit is coming, it's crazy man
+Uh uh, yeah, okay
+Dipset, yo, let's do it man!
+I show ya niggas how to one take this joint right here, okay
+[Verse 1: J.R. Writer]
+Yo, you might catch me in the Benzo
+Pulling on the endo
+Or I'm V.I.P. pulling on a bimbo
+As far as rims go, my car is like the gun norm
+I'm Menace II Society, I stay on the rims ya
+This the intro, the intro, the intro
+The pimp hoes, the bling clothes, the tints on the window (bling!)
+You know my M.O., [?] down the [?]
+The party hard, the marli gras
+Squeezing on an M4/nympho
+I don't need no info
+Cause trust me the play is papers some like ya'll do see me king goes
+Obliviously? I spin dope (chi-ching!), I'm on another level
+How you gon' compare Maserati to a pimps ho?
+I'm the [?] from Jim Jones(?), flashing when I'm out cash
+[?] all tight but I'm laughing at the [?] cause I'm [?] at the [?]
+Magic stick down the throat like I'm try to pull a damn rabbit down the mouth, ho!
+[Hook: Bushido and (J.R. Writer)]
+Bushido (Dipset)
+Dies hier ist mein Ami-Feature
+Du kriegst die Knochen zum Frühstück, wenn deine Mami lieb war
+Ihr seid wie Harferflocken, ich bin ein harter Brocken
+Ich fick deine Schwester, wenn deine Eltern im Theater hocken
+(2x)
+[Verse 2: Bushido]
+Ich bin ein Hooligan
+Du bist nur der schwule Fan
+Wenn ich mein Geld zähle, musst du in die Schule renn'
+Lass mal wetten, wer von uns beiden den Dicksten hat
+Du kannst dein' Kaviar bestlelen, ich ess' bei Pizza Hut
+Ich bin so vielfältig, wie Seiten eines Würfels
+Mit so viel Power und Disziplin wie ein Ninja Turtle
+Hör mal hin, jeder Satz sitzt wie angegossen
+Mukkst du einmal auf, wirst du einfach angeschossen
+Geh deine Brüder holen, ihr könnt mich überholen
+Und tortzzdem schmuggel' ich ein Kilo Koks über Polen
+Ich bin der deutsche Panzer, wo ist dien Zollbeamter
+Ich mach' mein Album und betreibe damit Propaganda
+Ihr könnt jetzt Welle schieben, ihr könnt mich therapieren
+Doch Jungs, ihr braucht jetzt Antipickelcreme wie Clerasil
+Ihr wohnt im Dschungel leider
+Und kennt nur dumme Weiber
+Frag' deine Mama mein Freund, ich bin ein Wunderheiler
+Du wirst abgeschoben, dein Visum ist abgelaufen
+Hier in Berlin kann man sich auf dem Schulhof Waffen kaufen
+Ich bin nicht zu schlagen Homie, wie in Hollywood
+Deine Freundin ist ein kleines Kücken, dass auf Comics guckt
+[Hook]
+(4x)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -994,8 +1578,59 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Hook: Bushido, Saad]Das ist jetzt eure Hymne, die Hymne, die aus eurer Straße kommtDenn das ist weitaus mehr, als nur ein PartysongDie üblichen Verdächtigen, dass ist die deutsche MitteDenn das was offen bleibt, ist nur wenn ich heute fickeUnd sie verbieten mich, doch die Kinder lieben dichFür ihre Eltern bin ich lästig wie ein BienenstichErsguterjunge, Hymne der StraßeHände hoch du Dreckskind, ich plünder die Kasse, oh[Part 1: Bushido]Yeah, das ist die Ersguterjunge-Single, das ist Deutschlands ZukunftIch hab euch gesucht und gefunden wie ein BluthundWo wollt ihr hin jetzt, hier gibt's keinen RegenbogenDu bist ein Rapper, der sich schämt für seine SegelohrenIch komme zum Blind-Date, ich brauche nur ein TakeBis einer meiner Freunde kommt und euch dann zu Brei schlägtDenn ihr seid geistig behindert und zurück gebliebenGuckt mal, alle meine Fans sind auch verrückt gebliebenMan kann mich nicht verändern, ich bin ein NaturgesetzSaad hat es schon mal gesagt, dass ihr alle wie Huren rapptIch mache schon wieder ein Album innerhalb von WochenDas ist echter Gangster-Rap, Junge, direkt aus den GossenWo ist dein Butterfly, du bist nicht krasser, neinDeine schwule HipHop-Crew kommt nur aus dem TanzvereinDu kannst glauben wie du willst, Gott hilft dir auch nicht mehrRapper rennen vor mir weg, als ob mein Name Blaulicht wär'Keiner traut sich her, Berlin ist mein BezirkIch bin der Junge, auf den deine Mama neidisch wirdBushido ist zurück, oh, Trauer Trauer für dichTempelhof achtundvierzig, friss die Mauer du Bitch
-[Hook: Bushido, Saad][Part 2: Saad]Nie wieder in den Knast rein, ich bin jetzt auf Platz dreiIch schau dein Cover an und weiß du musst ein Spasst seinMein größter Konkurrent sieht aus wie ein MastschweinIch leb hier im Ghetto, du sagst Deutschland hat keinsDer vom Block, Junge, der von Carlo CokxxxDeine Stricherfreunde hängen ab am Bahnhof ZooIch bin der mit dem FickdeinemutterslangDraußen schneit's, doch ich rappe hier im UnterhemdIch bin kein Sunnyboy, trotzdem blasen die FrauenDu hast deine Cordon Sport gegen die Bravo getauschtIch bring Deutschrap wieder auf die Strasse zurückJunge, ich hab schon alle deine Kameraden geficktDu kleiner Junky tust die Nadel an deinen Arm und du drückstIch hab deiner Schwester nur in die Visage gewichstIch bin nicht zu stoppen, ich komme um mich zu boxenJetzt kriegen sie von MZEE Punkt com wieder das KotzenIch trage kein Rucksack, bye homie, good luckIch komme in deine Stadt und mach deine Hood plattIch hab krass begonnen und ich bin noch krasser gewordenMein letztes Album ist so was wie ein Massaker geworden, yeah[Hook: Bushido, Saad]</t>
+          <t>[Hook: Bushido, Saad]
+Das ist jetzt eure Hymne, die Hymne, die aus eurer Straße kommt
+Denn das ist weitaus mehr, als nur ein Partysong
+Die üblichen Verdächtigen, dass ist die deutsche Mitte
+Denn das was offen bleibt, ist nur wenn ich heute ficke
+Und sie verbieten mich, doch die Kinder lieben dich
+Für ihre Eltern bin ich lästig wie ein Bienenstich
+Ersguterjunge, Hymne der Straße
+Hände hoch du Dreckskind, ich plünder die Kasse, oh
+[Part 1: Bushido]
+Yeah, das ist die Ersguterjunge-Single, das ist Deutschlands Zukunft
+Ich hab euch gesucht und gefunden wie ein Bluthund
+Wo wollt ihr hin jetzt, hier gibt's keinen Regenbogen
+Du bist ein Rapper, der sich schämt für seine Segelohren
+Ich komme zum Blind-Date, ich brauche nur ein Take
+Bis einer meiner Freunde kommt und euch dann zu Brei schlägt
+Denn ihr seid geistig behindert und zurück geblieben
+Guckt mal, alle meine Fans sind auch verrückt geblieben
+Man kann mich nicht verändern, ich bin ein Naturgesetz
+Saad hat es schon mal gesagt, dass ihr alle wie Huren rappt
+Ich mache schon wieder ein Album innerhalb von Wochen
+Das ist echter Gangster-Rap, Junge, direkt aus den Gossen
+Wo ist dein Butterfly, du bist nicht krasser, nein
+Deine schwule HipHop-Crew kommt nur aus dem Tanzverein
+Du kannst glauben wie du willst, Gott hilft dir auch nicht mehr
+Rapper rennen vor mir weg, als ob mein Name Blaulicht wär'
+Keiner traut sich her, Berlin ist mein Bezirk
+Ich bin der Junge, auf den deine Mama neidisch wird
+Bushido ist zurück, oh, Trauer Trauer für dich
+Tempelhof achtundvierzig, friss die Mauer du Bitch
+[Hook: Bushido, Saad]
+[Part 2: Saad]
+Nie wieder in den Knast rein, ich bin jetzt auf Platz drei
+Ich schau dein Cover an und weiß du musst ein Spasst sein
+Mein größter Konkurrent sieht aus wie ein Mastschwein
+Ich leb hier im Ghetto, du sagst Deutschland hat keins
+Der vom Block, Junge,der von Carlo Cokxxx
+Deine Stricherfreunde hängen ab am Bahnhof Zoo
+Ich bin der mit dem Fickdeinemutterslang
+Draußen schneit's, doch ich rappe hier im Unterhemd
+Ich bin kein Sunnyboy, trotzdem blasen die Frauen
+Du hast deine Cordon Sport gegen die Bravo getauscht
+Ich bring Deutschrap wieder auf die Strasse zurück
+Junge, ich hab schon alle deine Kameraden gefickt
+Du kleiner Junky tust die Nadel an deinen Arm und du drückst
+Ich hab deiner Schwester nur in die Visage gewichst
+Ich bin nicht zu stoppen, ich komme um mich zu boxen
+Jetzt kriegen sie von MZEE Punkt com wieder das Kotzen
+Ich trage kein Rucksack, bye homie, good luck
+Ich komme in deine Stadt und mach deine Hood platt
+Ich hab krass begonnen und ich bin noch krasser geworden
+Mein letztes Album ist so was wie ein Massaker geworden, yeah
+[Hook: Bushido, Saad]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1047,9 +1682,84 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Part 1]Was ist mit uns passiert, du bist mir fremd gewordenIch gucke dich an und fühle ich bin bei dir nicht geborgenWir beide wollten reden, jetzt streiten wir uns wiederWenn du ehrlich bist, weißt du, dass ich das nicht verdient hab'Ich kriege so langsam Angst, dass du nicht mehr lieben kannstDass du Gefühle, die ich habe nicht erwidern kannstEs macht mich krank, wenn du sagst, dass das nicht stimmtDu redest vom großen Glück, doch verhältst dich wie ein KindWarum tust du mir das an, woher kommt der Hass in dirIch wollte nicht erkennen, dass ich meine Platz verlier'Der Platz in deinem Herzen, bis tief in deine SeeleJetzt sitzen deine Blicke wie ein Strick um meine KehleDu hörst mir nicht mehr zu, ich habe keine Bedeutung mehrMeine Gedanken fliegen durch den Raum kreuz und querDu fürchtest dich, es ist okay, wenn du deswegen fliehstBesser du gehst jetzt bevor du meine Tränen siehst[Hook]Es ist ein Augenblick, der dir das Leben nimmtUnd es ist ganz egal, ob wir beide dagegen sindDenn unser aller Schicksal, wir warten auf den TagUnd der Verlust wird kommen, wie der Nagel in den SargEs ist ein Augenblick, der dir das Leben nimmtUnd es ist ganz egal, ob wir beide dagegen sindDenn unser aller Schicksal, wir warten auf den TagUnd der Verlust wird kommen, wie der Nagel in den Sarg
-[Part 2]Ich fahre nach Hause jetzt, ich habe sie losgelassenWäre ich ein Mädchen, würde ich diesen beiden Strophen hassenIch komme nicht klar mit ihr, ich komme nicht klar mit mirIch weiß noch wie ich sie gesehen habe in diesem Laden hierSie las die Zeitung und trank ihren MilchcaféIch wusste, dass ich jetzt die Mutter meiner Kinder seh'Und als sie plötzlich lachte klang es wie EngelsstimmenEs klang so bitter-süß, als ob die kleinen Engel singenDenn es ist Fakt, dass diese Frau etwas Besonderes istUnd wenn sie guckt ist es, als ob man dann die Sonne vergisstDieses Geschenk GottesUnd man vermisst eine Person erst plötzlich dann, wenn der Moment fort istWenn man den Anruf kriegt und sie im Koma liegtEs holt dich runter wie als wenn man grad kein Koka ziehtIch hau ein Loch in die Wand mit der blanken FaustIch hab Angst, Angst vor der Fahrt in's Krankenhaus[Hook]Es ist ein Augenblick, der dir das Leben nimmtUnd es ist ganz egal, ob wir beide dagegen sindDenn unser aller Schicksal, wir warten auf den TagUnd der Verlust wird kommen, wie der Nagel in den SargEs ist ein Augenblick, der dir das Leben nimmtUnd es ist ganz egal, ob wir beide dagegen sindDenn unser aller Schicksal, wir warten auf den TagUnd der Verlust wird kommen, wie der Nagel in den Sarg
-[Part 3]Ich glaube du kannst mich hören, ich bin jetzt hier bei dirWir beide wissen zwischen uns beiden ist viel passiertWie du hier liegen musst und künstlich beatmet wirstEgal was war, heute bleibe ich, bis dein Atem stirbtDie Mediziner sagen heute wirst du von uns gehenIch höre dein schwaches Herz schlagen und mir kommen die TränenIch wollte noch so viel sagen, ich wollte es in Ordnung bringenIch wollte, dass du merkst wie ernst mir diese Worte sindIch weiß, die Engel werden sich gut um deine Seele sorgenUnd auch ein Schmetterling wird kommen wie an jenem MorgenLass deine Ängste hier, nimm meine Hoffnung mitIch weiß für jeden Menschen ist der Tod ein KompromissIch würde mein Herz gebenIch würde dich bis in den Himmel tragen, dich dort schlafen legen und den Schmerz nehmenDoch das ist deine Reise, ich kann dich nicht begleitenGott will, dass ich bei dieser reise nicht dabei bin[Hook]Es ist ein Augenblick, der dir das Leben nimmtUnd es ist ganz egal, ob wir beide dagegen sindDenn unser aller Schicksal, wir warten auf den TagUnd der Verlust wird kommen, wie der Nagel in den SargEs ist ein Augenblick, der dir das Leben nimmtUnd es ist ganz egal, ob wir beide dagegen sindDenn unser aller Schicksal, wir warten auf den TagUnd der Verlust wird kommen, wie der Nagel in den Sarg</t>
+          <t>[Part 1]
+Was ist mit uns passiert, du bist mir fremd geworden
+Ich gucke dich an und fühle ich bin bei dir nicht geborgen
+Wir beide wollten reden, jetzt streiten wir uns wieder
+Wenn du ehrlich bist, weißt du, dass ich das nicht verdient hab'
+Ich kriege so langsam Angst, dass du nicht mehr lieben kannst
+Dass du Gefühle, die ich habe nicht erwidern kannst
+Es macht mich krank, wenn du sagst, dass das nicht stimmt
+Du redest vom großen Glück, doch verhältst dich wie ein Kind
+Warum tust du mir das an, woher kommt der Hass in dir
+Ich wollte nicht erkennen, dass ich meine Platz verlier'
+Der Platz in deinem Herzen, bis tief in deine Seele
+Jetzt sitzen deine Blicke wie ein Strick um meine Kehle
+Du hörst mir nicht mehr zu, ich habe keine Bedeutung mehr
+Meine Gedanken fliegen durch den Raum kreuz und quer
+Du fürchtest dich, es ist okay, wenn du deswegen fliehst
+Besser du gehst jetzt bevor du meine Tränen siehst
+[Hook]
+Es ist ein Augenblick, der dir das Leben nimmt
+Und es ist ganz egal, ob wir beide dagegen sind
+Denn unser aller Schicksal, wir warten auf den Tag
+Und der Verlust wird kommen, wie der Nagel in den Sarg
+Es ist ein Augenblick, der dir das Leben nimmt
+Und es ist ganz egal, ob wir beide dagegen sind
+Denn unser aller Schicksal, wir warten auf den Tag
+Und der Verlust wird kommen, wie der Nagel in den Sarg
+[Part 2]
+Ich fahre nach Hause jetzt, ich habe sie losgelassen
+Wäre ich ein Mädchen, würde ich diesen beiden Strophen hassen
+Ich komme nicht klar mit ihr, ich komme nicht klar mit mir
+Ich weiß noch wie ich sie gesehen habe in diesem Laden hier
+Sie las die Zeitung und trank ihren Milchcafé
+Ich wusste, dass ich jetzt die Mutter meiner Kinder seh'
+Und als sie plötzlich lachte klang es wie Engelsstimmen
+Es klang so bitter-süß, als ob die kleinen Engel singen
+Denn es ist Fakt, dass diese Frau etwas Besonderes ist
+Und wenn sie guckt ist es, als ob man dann die Sonne vergisst
+Dieses Geschenk Gottes
+Und man vermisst eine Person erst plötzlich dann, wenn der Moment fort ist
+Wenn man den Anruf kriegt und sie im Koma liegt
+Es holt dich runter wie als wenn man grad kein Koka zieht
+Ich hau ein Loch in die Wand mit der blanken Faust
+Ich hab Angst, Angst vor der Fahrt in's Krankenhaus
+[Hook]
+Es ist ein Augenblick, der dir das Leben nimmt
+Und es ist ganz egal, ob wir beide dagegen sind
+Denn unser aller Schicksal, wir warten auf den Tag
+Und der Verlust wird kommen, wie der Nagel in den Sarg
+Es ist ein Augenblick, der dir das Leben nimmt
+Und es ist ganz egal, ob wir beide dagegen sind
+Denn unser aller Schicksal, wir warten auf den Tag
+Und der Verlust wird kommen, wie der Nagel in den Sarg
+[Part 3]
+Ich glaube du kannst mich hören, ich bin jetzt hier bei dir
+Wir beide wissen zwischen uns beiden ist viel passiert
+Wie du hier liegen musst und künstlich beatmet wirst
+Egal was war, heute bleibe ich, bis dein Atem stirbt
+Die Mediziner sagen heute wirst du von uns gehen
+Ich höre dein schwaches Herz schlagen und mir kommen die Tränen
+Ich wollte noch so viel sagen, ich wollte es in Ordnung bringen
+Ich wollte, dass du merkst wie ernst mir diese Worte sind
+Ich weiß, die Engel werden sich gut um deine Seele sorgen
+Und auch ein Schmetterling wird kommen wie an jenem Morgen
+Lass deine Ängste hier, nimm meine Hoffnung mit
+Ich weiß für jeden Menschen ist der Tod ein Kompromiss
+Ich würde mein Herz geben
+Ich würde dich bis in den Himmel tragen, dich dort schlafen legen und den Schmerz nehmen
+Doch das ist deine Reise, ich kann dich nicht begleiten
+Gott will, dass ich bei dieser reise nicht dabei bin
+[Hook]
+Es ist ein Augenblick, der dir das Leben nimmt
+Und es ist ganz egal, ob wir beide dagegen sind
+Denn unser aller Schicksal, wir warten auf den Tag
+Und der Verlust wird kommen, wie der Nagel in den Sarg
+Es ist ein Augenblick, der dir das Leben nimmt
+Und es ist ganz egal, ob wir beide dagegen sind
+Denn unser aller Schicksal, wir warten auf den Tag
+Und der Verlust wird kommen, wie der Nagel in den Sarg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1101,9 +1811,55 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Intro]Oh man, Rizbo, alterWas hast du da bloß gemacht, JungeYeah, yeahOh man, JungsDas ist so, wie wenn man schlecht träumt und plötzlich aufwachtUnd man hat das ganze Bett vollgepisst, alterErsguterjungeYeahOkay[Hook]Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung anJunge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an[Part 1]Du machst auf Banger, doch das hier ist kein WunschkonzertDu willst Beef mit mir, ich gebe dir einen Grund, komm herDu bist in Tempelhof, hier gibt es kein TempolimitUndercover, Drogen, Kick-Box mit dem längsten PimmelMonika Griefahn steht nicht auf meinen HumorRapp, wie du willst, Homie, doch das bringt dir kein'n AwardIch bin dieser eine Harte, der rapptGuck mich an, ich habe die Hauptsstadt auf die Karte gesetzt, BerlinUnd keiner von den Kids redet von PlaymobilSeitdem ich da bin wollen alle nur noch Yayo ziehenKleiner Mann, du brauchst ne PenisprotheseSag mir, Spast, wann bist du je in meiner Gegend gewesen?Das ist wie Holz hackenVom Rappen kriege ich Muskeln, ich kann nichts dafür, dass deine Leute sich jetzt vollkackenDu Vollspacken, deine Mutter hat ne scheiß FigurErsguterjunge, denn ich trage jetzt ne Breitling-Uhr
-[Hook]Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung anJunge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an[Part 2]Ich boxe dich in die Dreißiger, du bist mir scheißegalIch kann nichts dafür, dass deine Mutter eine Heide warIch bin ein HighlanderDer Staatsfeind Nummer eins und der BND sucht mich mit nem PeilsenderIn letzter Zeit läuft mein Leben wie ne HexenjagdDoch ich bleibe ein Feindbild für euch bis zum letzten TagDas ist ein Actionfilm und beim besten WillenIrgendwann bin ich wie Eminem auf sechzehn PillenIhr seid Schwuchteln, Jungs, auf einmal kriegt ihr MuskelschwundJa, ich habe deine Mama letzte Nacht im Puff gebumstIhr wollt zu Wetten Das?, wir haben ein WettbüroWir sind zu sechst jetzt, denn ich habe noch Ek geholtHier geht die Action los, dass hier ist nicht Brothers KeepersWenn ihr wollt könnt ihr mir alle eure Mamas liefernIhr seid nur Ballerinas, ihr könnt vor dem Spiegel übenIhr seid aggro und schiebt Optik jetzt vor diesem Typen
-[Hook]Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung anJunge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an[Part 3]Denn ich war nie ein Rapper, ich hab meine Schule geschwänztDer Endgegner, guck, ich habe zu viele FansGuck mich an, wie ich jeden deiner Homeys erschieß'Sag was wäre dieser Deutsch-Rap ohne die GeesDu machst nichts, was ich nicht schon gestern gut gemacht hab'Bei Nacht ficke ich dich jetzt in deiner kack StadtIch gucke dich an und reduziere dich auf ZentimeterDer Staatsfeind Nummer eins, guck mich an, ich bin der Endgegner[Hook]Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung anJunge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+          <t xml:space="preserve">[Intro]
+Oh man, Rizbo, alterWas hast du da bloß gemacht, JungeYeah, yeah
+Oh man, JungsDas ist so, wie wenn man schlecht träumt und plötzlich aufwachtUnd man hat das ganze Bett vollgepisst, alterErsguterjungeYeahOkay
+[Hook]
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+[Part 1]
+Du machst auf Banger, doch das hier ist kein Wunschkonzert
+Du willst Beef mit mir, ich gebe dir einen Grund, komm her
+Du bist in Tempelhof, hier gibt es kein Tempolimit
+Undercover, Drogen, Kick-Box mit dem längsten Pimmel
+Monika Griefahn steht nicht auf meinen Humor
+Rapp, wie du willst, Homie, doch das bringt dir kein'n Award
+Ich bin dieser eine Harte, der rappt
+Guck mich an, ich habe die Hauptsstadt auf die Karte gesetzt, Berlin
+Und keiner von den Kids redet von PlaymobilSeitdem ich da bin wollen alle nur noch Yayo ziehen
+Kleiner Mann, du brauchst ne Penisprothese
+Sag mir, Spast, wann bist du je in meiner Gegend gewesen?
+Das ist wie Holz hackenVom Rappen kriege ich Muskeln, ich kann nichts dafür, dass deine Leute sich jetzt vollkacken
+Du Vollspacken, deine Mutter hat ne scheiß FigurErsguterjunge, denn ich trage jetzt ne Breitling-Uhr
+[Hook]
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+[Part 2]
+Ich boxe dich in die Dreißiger, du bist mir scheißegal
+Ich kann nichts dafür, dass deine Mutter eine Heide war
+Ich bin ein Highlander
+Der Staatsfeind Nummer eins und der BND sucht mich mit nem Peilsender
+In letzter Zeit läuft mein Leben wie ne Hexenjagd
+Doch ich bleibe ein Feindbild für euch bis zum letzten Tag
+Das ist ein Actionfilm und beim besten WillenIrgendwann bin ich wie Eminem auf sechzehn Pillen
+Ihr seid Schwuchteln, Jungs, auf einmal kriegt ihr Muskelschwund
+Ja, ich habe deine Mama letzte Nacht im Puff gebumst
+Ihr wollt zu Wetten Das?, wir haben ein Wettbüro
+Wir sind zu sechst jetzt, denn ich habe noch Ek geholt
+Hier geht die Action los, dass hier ist nicht Brothers KeepersWenn ihr wollt könnt ihr mir alle eure Mamas liefern
+Ihr seid nur Ballerinas, ihr könnt vor dem Spiegel übenIhr seid aggro und schiebt Optik jetzt vor diesem Typen
+[Hook]
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+[Part 3]
+Denn ich war nie ein Rapper, ich hab meine Schule geschwänztDer Endgegner, guck, ich habe zu viele Fans
+Guck mich an, wie ich jeden deiner Homeys erschieß'Sag was wäre dieser Deutsch-Rap ohne die Gees
+Du machst nichts, was ich nicht schon gestern gut gemacht hab'Bei Nacht ficke ich dich jetzt in deiner kack Stadt
+Ich gucke dich an und reduziere dich auf Zentimeter
+Der Staatsfeind Nummer eins, guck mich an, ich bin der Endgegner
+[Hook]
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
+Junge, sie schreien, hey, ich bin der EndgegnerUnd sie schreien, hey hey, denn mich kennt jederDu kannst entweder kommen, hör mein Album anOder, brra brra, salutier, nimm jetzt Haltung an
 </t>
         </is>
       </c>
@@ -1156,8 +1912,55 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Und nach so langer Zeit, ich habe schon beinah nicht mehr dran geglaubtDenn auch dein Foto ist so langsam an der Wand verstaubtMan hat mich fort gebracht, dahin, wo man nicht gerne istAn einen Ort, an dem man sogar seinen Stern vergisstSo weit entfernt von dir und dunkel wie ein leerer BlickAuch, wenn ich an dich dachte, wusste ich nicht wer da istEs war wie stille Post, ein Blatt Papier, doch ohne TextDoch auch so weit entfernt von dir hältst du noch an mir festIch habe dich so vermisst, mehr als noch mein AugenlichtIn dieser Zelle sitzt ein Junge, der so traurig istUnd jede Stunde, die verging, war so unendlich langIch weiß, dass du da draußen wartest, denn du kennst deinen MannGuck, jede Nacht habe ich im Traum auf dich aufgepasstDu hast dich gut um mich gekümmert, doch ich brauchte dasUnd auch, wenn irgendwann die Stille dich zum weinen bringtAlles wird gut, alles andere macht keinen Sinn[Hook: Cassandra Steen](x2)Ich zähle die Stunden bis wir uns wieder sehenUnd bis dahin kannst du mein Herz mitnehmenVermisse die Nähe, wenn du morgens neben mir aufwachstMir fehlt die Wärme, die du mir immer gegeben hast[Part 2: Cassandra Steen]Kann nicht in Worte fassen, wie es ist, wenn du nicht bei mir bistIch bitte um Kraft, wenn du nicht da bist und das du mich nicht vergisstDie Zeiten sind hart und trotz der Ferne kommen wir uns näher jeden TagIch fühle mich trotzdem selten so allein und wünsch mir du wärst da
-[Part 3: Bushido]Und so stehe ich heute endlich vor der letzten TürIch kann schon lange nichts mehr essen, ich muss jetzt zu dirMan lässt mich wieder gehen, ich werde dich wieder sehenNach all den Jahren komme ich raus und werde dir viel erzählenIch bin ein Mann, der jetzt die ganze Welt umarmen kannUnd mit ein wenig Zeit heilen auch die Narben dannDu brauchst Geduld mit mir, bitte, es ist viel geschehenDu schenkst mir dein Vertrauen und manchmal viele TränenIch habe das Ticket schon und stehe jetzt zum Flug bereitEs tut mir leid, ich hab's eigentlich nur gut gemeintIch wird's in Ordnung bringen, ich hätte dich fast verlorenIch sehe es ein, doch diese Einsicht ist im Knast geborenWas für eine starke Frau, guck, du hast ein LöwenherzEgal wie groß auch die Gefahr, du trotzt dem größten SchmerzHaltet die Welt an (Haltet die Welt an!)Denn für dich halte ich die Zeit an, Schatz, wie auf alten Gemäldern[Hook: Cassandra Steen](x2)Ich zähle die Stunden bis wir uns wieder sehenBis dahin wird meine Liebe mit dir gehenUnd sie wird halten über die größte Distanz hinausDu wirst mich finden, wo du mich immer am meisten brauchst</t>
+          <t>[Part 1: Bushido]
+Und nach so langer Zeit, ich habe schon beinah nicht mehr dran geglaubt
+Denn auch dein Foto ist so langsam an der Wand verstaubt
+Man hat mich fort gebracht, dahin, wo man nicht gerne ist
+An einen Ort, an dem man sogar seinen Stern vergisst
+So weit entfernt von dir und dunkel wie ein leerer Blick
+Auch, wenn ich an dich dachte, wusste ich nicht wer da ist
+Es war wie stille Post, ein Blatt Papier, doch ohne Text
+Doch auch so weit entfernt von dir hältst du noch an mir fest
+Ich habe dich so vermisst, mehr als noch mein Augenlicht
+In dieser Zelle sitzt ein Junge, der so traurig ist
+Und jede Stunde, die verging, war so unendlich lang
+Ich weiß, dass du da draußen wartest, denn du kennst deinen Mann
+Guck, jede Nacht habe ich im Traum auf dich aufgepasst
+Du hast dich gut um mich gekümmert, doch ich brauchte das
+Und auch, wenn irgendwann die Stille dich zum weinen bringt
+Alles wird gut, alles andere macht keinen Sinn
+[Hook: Cassandra Steen](x2)
+Ich zähle die Stunden bis wir uns wieder sehen
+Und bis dahin kannst du mein Herz mitnehmen
+Vermisse die Nähe, wenn du morgens neben mir aufwachst
+Mir fehlt die Wärme, die du mir immer gegeben hast
+[Part 2: Cassandra Steen]
+Kann nicht in Worte fassen, wie es ist, wenn du nicht bei mir bist
+Ich bitte um Kraft, wenn du nicht da bist und das du mich nicht vergisst
+Die Zeiten sind hart und trotz der Ferne kommen wir uns näher jeden Tag
+Ich fühle mich trotzdem selten so allein und wünsch mir du wärst da
+[Part 3: Bushido]
+Und so stehe ich heute endlich vor der letzten Tür
+Ich kann schon lange nichts mehr essen, ich muss jetzt zu dir
+Man lässt mich wieder gehen, ich werde dich wieder sehen
+Nach all den Jahren komme ich raus und werde dir viel erzählen
+Ich bin ein Mann, der jetzt die ganze Welt umarmen kann
+Und mit ein wenig Zeit heilen auch die Narben dann
+Du brauchst Geduld mit mir, bitte, es ist viel geschehen
+Du schenkst mir dein Vertrauen und manchmal viele Tränen
+Ich habe das Ticket schon und stehe jetzt zum Flug bereit
+Es tut mir leid, ich hab's eigentlich nur gut gemeint
+Ich wird's in Ordnung bringen, ich hätte dich fast verloren
+Ich sehe es ein, doch diese Einsicht ist im Knast geboren
+Was für eine starke Frau, guck, du hast ein Löwenherz
+Egal wie groß auch die Gefahr, du trotzt dem größten Schmerz
+Haltet die Welt an (Haltet die Welt an!)
+Denn für dich halte ich die Zeit an, Schatz, wie auf alten Gemäldern
+[Hook: Cassandra Steen](x2)
+Ich zähle die Stunden bis wir uns wieder sehen
+Bis dahin wird meine Liebe mit dir gehen
+Und sie wird halten über die größte Distanz hinaus
+Du wirst mich finden, wo du mich immer am meisten brauchst</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1209,8 +2012,67 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Intro: Billy 13, Bushido]Ey, ihr HomosWer von euch Pennern kann sich noch an mich erinnern?Ihr seid immer noch alle scheiße, also bleibt weg aus unserer StadtHaYeah, OhUnd lasst ersguterjunge die richtigen Ansagen machenBilly, okayYeah[Part 1: Bushido]Es gibt kein Überleben (oh nein)Sorry Jungs, doch ich werde mit keinem von euch Punks darüber redenIch bin kalt, guckt ich bin immer nochImmer noch dieser Typ, der die Kinder boxtHörst du mein Herz schlagen, denn es pumpt KilohertzKommt nach Berlin und ich verkaufe euch ein Kilo SchmerzIhr könnt euch aufregen, geht und hängt euch aufDoch es ist Fakt, dass dieses Land einen Gangster brauchtGuckt, die Fans sind drauf, hört ihr die Kinder redenIch habe seit Jahren schon Koks unter den FingernägelnIch bin ein Terrorist, der gerne mit Hero ticktDas einzige, was mir jetzt auffällt ist, wie gay du bistIch lasse mich blicken und verursache HysterieDu willst schnell sterben, komm her, ich wüsste wieDie deutsche Jugend ist ein Fass ohne BodenFür mich fast so hart wie ein Tag ohne DrogenMir war von Anfang an klar, dass ich Neider hab'Doch leider nimmt euch euer Gangster-Image leider keiner abIch muss ins Ghetto zurück, falls es mit dem Rappen nicht klapptEin Wort gegen uns und ich steche euch ab
-[Hook: Billy 13]Wer hört euch dannWir regieren DeutschlandDu musst fliehen, wenn diese beiden kommenFür euch ist es aus, es gibt leider kein Entkommen[Bridge: Saad, Bushido]Machst du einen Track fragt sich jeder wiesoMache ich einen Track freut sich jeder IdiotWas du anfässt landet wieder im KloKomm mach es wie dein Berliner Idol[Part 2: Saad]Ghettorap hin, Ghettorap herDas Leben ist nur eine große Runde, wer wird Millionär, yeahIch bin der neue Star, Bushido meint es ernst mit SaadUnd eure deutschen Eltern kriegen jetzt nen HerzinfarktSehe mich bei VIVA selbst und auch bei TRLDann gehe ich auf die Straße und verteile wieder SchellenEs geht mir viel zu schnell, guck her, ich werde verfolgtÜberall werde ich erkannt, doch es quatscht mich keiner vollSie haben Angst vor Saad, sie haben Angst vor mirIch bin erst neunzehn Jahre alt, ihr seid pensioniertJetzt bin ich der, den du nie wieder bei ALDI siehstScheiß auf eure Baggy-Pants, ich rappe in Picaldi-JeansLad mich zu Shows ein, ich bin nämlich schwer danebenIch bin jetzt der Held in meiner Stadt, so wie Werder BremenEs war unmöglich und doch ist es wahr gewordenIch bin nach einem Jahr Rap jetzt zum Star gewordenDu bist nur Untergrund, du kommst nicht groß rausWenn meine Freunde kommen ist für euch der Ofen ausEs ist der Drogenrausch, eure Kinder ziehen KoksErsguterjunge, brrä, Carlo Cokxxx Nutten-Flow
+          <t>[Intro: Billy 13, Bushido]
+Ey, ihr Homos
+Wer von euch Pennern kann sich noch an mich erinnern?
+Ihr seid immer noch alle scheiße, also bleibt weg aus unserer Stadt
+Ha
+Yeah, Oh
+Und lasst ersguterjunge die richtigen Ansagen machen
+Billy, okay
+Yeah
+[Part 1: Bushido]
+Es gibt kein Überleben (oh nein)
+Sorry Jungs, doch ich werde mit keinem von euch Punks darüber reden
+Ich bin kalt, guckt ich bin immer noch
+Immer noch dieser Typ, der die Kinder boxt
+Hörst du mein Herz schlagen, denn es pumpt Kilohertz
+Kommt nach Berlin und ich verkaufe euch ein Kilo Schmerz
+Ihr könnt euch aufregen, geht und hängt euch auf
+Doch es ist Fakt, dass dieses Land einen Gangster braucht
+Guckt, die Fans sind drauf, hört ihr die Kinder reden
+Ich habe seit Jahren schon Koks unter den Fingernägeln
+Ich bin ein Terrorist, der gerne mit Hero tickt
+Das einzige, was mir jetzt auffällt ist, wie gay du bist
+Ich lasse mich blicken und verursache Hysterie
+Du willst schnell sterben, komm her, ich wüsste wie
+Die deutsche Jugend ist ein Fass ohne Boden
+Für mich fast so hart wie ein Tag ohne Drogen
+Mir war von Anfang an klar, dass ich Neider hab'
+Doch leider nimmt euch euer Gangster-Image leider keiner ab
+Ich muss ins Ghetto zurück, falls es mit dem Rappen nicht klappt
+Ein Wort gegen uns und ich steche euch ab
+[Hook: Billy 13]
+Wer hört euch dann
+Wir regieren Deutschland
+Du musst fliehen, wenn diese beiden kommen
+Für euch ist es aus, es gibt leider kein Entkommen
+[Bridge: Saad, Bushido]
+Machst du einen Track fragt sich jeder wieso
+Mache ich einen Track freut sich jeder Idiot
+Was du anfässt landet wieder im Klo
+Komm mach es wie dein Berliner Idol
+[Part 2: Saad]
+Ghettorap hin, Ghettorap her
+Das Leben ist nur eine große Runde, wer wird Millionär, yeah
+Ich bin der neue Star, Bushido meint es ernst mit Saad
+Und eure deutschen Eltern kriegen jetzt nen Herzinfarkt
+Sehe mich bei VIVA selbst und auch bei TRL
+Dann gehe ich auf die Straße und verteile wieder Schellen
+Es geht mir viel zu schnell, guck her, ich werde verfolgt
+Überall werde ich erkannt, doch es quatscht mich keiner voll
+Sie haben Angst vor Saad, sie haben Angst vor mir
+Ich bin erst neunzehn Jahre alt, ihr seid pensioniert
+Jetzt bin ich der, den du nie wieder bei ALDI siehst
+Scheiß auf eure Baggy-Pants, ich rappe in Picaldi-Jeans
+Lad mich zu Shows ein, ich bin nämlich schwer daneben
+Ich bin jetzt der Held in meiner Stadt, so wie Werder Bremen
+Es war unmöglich und doch ist es wahr geworden
+Ich bin nach einem Jahr Rap jetzt zum Star geworden
+Du bist nur Untergrund, du kommst nicht groß raus
+Wenn meine Freunde kommen ist für euch der Ofen aus
+Es ist der Drogenrausch, eure Kinder ziehen Koks
+Ersguterjunge, brrä,Carlo Cokxxx Nutten-Flow
 [Hook: Billy 13]</t>
         </is>
       </c>
@@ -1263,9 +2125,69 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Oh, ich bin ein gebrochener MannDer sich schon lange nicht mehr freut auf einen WochenanfangIch habe die Zeit vergessen, ich will mich einfach nicht erinnernAlso renne ich einfach weg vor meiner Frau und meinen KindernIch ziehe den Gürtel um den Arm, bis ich die Venen seh'Und bete, dass ich heute endlich aus dem Leben geh'Mit diesem süßen KussMache ich mir selber Mut, damit ich loslassen kann und nichts mehr fühlen mussIch merke plötzlich wird es taub in meinem UnterkieferUnd aus meinem Mund krabbelt so langsam schon das UngezieferEs ist die Angst, die mich noch über meine Runden bringtWie ein kleines Mädchen, dass in einen Brunnen springtDie letzte Melodie, die tief in meine Ohren dringtDenn niemand schenkt mir meinen Stern, wenn ich gestorben binWeil eigentlich ist dieses Leben etwas HässlichesIch hasse es, also nehme ich und zerbreche ich es[Hook: Chakuza, Bushido](Got no money)Und trotzdem bleibe ich stehen wie ein MannUnd kämpfe weiter wie ein Löwe, wenn es sein muss mein Leben langIch behalte meinen Stolz, als wäre er ein DiamantDenn alles andere hab ich wie ein Blatt Papier verbranntIch bin bereit zu sterben, wenn der Herr es sagtDenn liegt hier unten meine Welt in Scherben, dann ist er nicht daUnd wird mir meine Last hier zu schwerDann nimmt der Teufel meine Asche und verstreut sie im Meer
-[Part 2: Chakuza]Es kann kalt sein und so hässlich, ich würde gehen, wenn ich könnteHier rollt der Starlight-Express am direkten Weg in die HölleGott hat die Augen zu gemacht und nahm mir Geld und die FreudeUnd macht ne Menge meiner Freunde zum Geschenk an den TeufelUnd keiner kann die Kinder retten, hört weg, wenn sie schreienHier liegen viele steife Körper in den Betten aus EisManchmal denke ich, ich bin wie ein Stern vom Himmel gefallenEin Kind des Alls liegt auf der Straße, ich bringe Licht auf den AsphaltHier ist der Ort an dem es endet und wohl kaum noch wer dagegen hältWo keiner rennt, wenn im November saurer Regen fälltVon uns träumt keiner mehr vom Bizz, oder Kiffen am AbendWir tragen Spritzen in den Adern, anstatt Kinder in den ArmenHier ist nichts Schönes mehr, kein Spaß und auch mein Lachen ist wegAuf diesen Straßen ist der Phönix statt aus Asche aus CrackHier ist der Ruf nach etwas Gutem noch viel lauter als ein BeatGuck meine Augen an, Jungs, hier draußen herrscht Krieg[Hook][Part 3: Chakuza]Guck mal, mein Haus, hier werde ich alt, es ist hier klasse zu lebenNur wird die Pappe etwas schnell zu Matsch, wenn es regnetGott sagt Chakuza sei verflucht und lässt den Mann danach fallenUnd fass dein Gold nicht an, denn es wird dann zu blankem MetallIch kann nicht rennen, verdammt, und weg hier, um was Neues zu bekommenDie Stadt der Engel ist gefangen, sie hat der Teufel eingenommenKomm, hol mich raus und gib mir Schutz, ich suche Zuflucht bei dirBruder, bis jetzt war nur das Bier wie ein Mutter zu mir
-[Part 4: Bushido]Oh, ich schließe die Augen und höre einfach mit dem Atmen aufUnd zerstöre letzten Endes dieses KartenhausIch spucke das Leben aus, als wäre mein Mund voller SandDenn heute sind auch meine letzten Helden unter gegangenIch will dort hin, damit mir endlich meine Flügel wachsenIch fühle mich heute schon so alt, dann ich war früh erwachsenMan kommt sich vor, als ob man plötzlich hundert Jahre fälltEine letzte Sache noch: Adieu, wunderbare Welt[Hook]</t>
+          <t>[Part 1: Bushido]
+Oh, ich bin ein gebrochener Mann
+Der sich schon lange nicht mehr freut auf einen Wochenanfang
+Ich habe die Zeit vergessen, ich will mich einfach nicht erinnern
+Also renne ich einfach weg vor meiner Frau und meinen Kindern
+Ich ziehe den Gürtel um den Arm, bis ich die Venen seh'
+Und bete, dass ich heute endlich aus dem Leben geh'
+Mit diesem süßen Kuss
+Mache ich mir selber Mut, damit ich loslassen kann und nichts mehr fühlen muss
+Ich merke plötzlich wird es taub in meinem Unterkiefer
+Und aus meinem Mund krabbelt so langsam schon das Ungeziefer
+Es ist die Angst, die mich noch über meine Runden bringt
+Wie ein kleines Mädchen, dass in einen Brunnen springt
+Die letzte Melodie, die tief in meine Ohren dringt
+Denn niemand schenkt mir meinen Stern, wenn ich gestorben bin
+Weil eigentlich ist dieses Leben etwas HässlichesIch hasse es, also nehme ich und zerbreche ich es
+[Hook:Chakuza, Bushido]
+(Got no money)
+Und trotzdem bleibe ich stehen wie ein Mann
+Und kämpfe weiter wie ein Löwe, wenn es sein muss mein Leben lang
+Ich behalte meinen Stolz, als wäre er ein Diamant
+Denn alles andere hab ich wie ein Blatt Papier verbrannt
+Ich bin bereit zu sterben, wenn der Herr es sagt
+Denn liegt hier unten meine Welt in Scherben, dann ist er nicht da
+Und wird mir meine Last hier zu schwer
+Dann nimmt der Teufel meine Asche und verstreut sie im Meer
+[Part 2: Chakuza]
+Es kann kalt sein und so hässlich, ich würde gehen, wenn ich könnte
+Hier rollt der Starlight-Express am direkten Weg in die Hölle
+Gott hat die Augen zu gemacht und nahm mir Geld und die Freude
+Und macht ne Menge meiner Freunde zum Geschenk an den Teufel
+Und keiner kann die Kinder retten, hört weg, wenn sie schreien
+Hier liegen viele steife Körper in den Betten aus Eis
+Manchmal denke ich, ich bin wie ein Stern vom Himmel gefallen
+Ein Kind des Alls liegt auf der Straße, ich bringe Licht auf den Asphalt
+Hier ist der Ort an dem es endet und wohl kaum noch wer dagegen hält
+Wo keiner rennt, wenn im November saurer Regen fällt
+Von uns träumt keiner mehr vom Bizz, oder Kiffen am Abend
+Wir tragen Spritzen in den Adern, anstatt Kinder in den Armen
+Hier ist nichts Schönes mehr, kein Spaß und auch mein Lachen ist weg
+Auf diesen Straßen ist der Phönix statt aus Asche aus Crack
+Hier ist der Ruf nach etwas Gutem noch viel lauter als ein Beat
+Guck meine Augen an, Jungs, hier draußen herrscht Krieg
+[Hook]
+[Part 3: Chakuza]
+Guck mal, mein Haus, hier werde ich alt, es ist hier klasse zu leben
+Nur wird die Pappe etwas schnell zu Matsch, wenn es regnet
+Gott sagt Chakuza sei verflucht und lässt den Mann danach fallen
+Und fass dein Gold nicht an, denn es wird dann zu blankem Metall
+Ich kann nicht rennen, verdammt, und weg hier, um was Neues zu bekommen
+Die Stadt der Engel ist gefangen, sie hat der Teufel eingenommen
+Komm, hol mich raus und gib mir Schutz, ich suche Zuflucht bei dir
+Bruder, bis jetzt war nur das Bier wie ein Mutter zu mir
+[Part 4: Bushido]
+Oh, ich schließe die Augen und höre einfach mit dem Atmen auf
+Und zerstöre letzten Endes dieses Kartenhaus
+Ich spucke das Leben aus, als wäre mein Mund voller Sand
+Denn heute sind auch meine letzten Helden unter gegangen
+Ich will dort hin, damit mir endlich meine Flügel wachsen
+Ich fühle mich heute schon so alt, dann ich war früh erwachsen
+Man kommt sich vor, als ob man plötzlich hundert Jahre fällt
+Eine letzte Sache noch: Adieu, wunderbare Welt
+[Hook]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1317,8 +2239,59 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Intro: Saad]Brrä[Part 1: Saad]Ich komme im BMW angefahren, oh man-o-manWie abgefahren, alle denken ich bin arrogantBitte komm nicht zu mir, ich fühle mich wie im siebten HimmelIch fahre den dicksten Wagen und ich bin jetzt wieder SingleGeh nach Hause, homie, du bist nur ein PolizistDu bist ein Opfer und du weißt nicht, was Hydraulik istKomm mit zum Nürburg-Ring und ich lasse die Reifen qualmenDeine Mama lässt sich von Oliver Geissen knallenIch bin überragend, weil ich überrageDein Auto zeigt, du bist nur ein Freak wie Nina HagenIch kann sie alle haben, die Weiber kommen angedackeltDu hast einen Dachschaden so wie einen an der WaffelGuck mich an, ich sitze am Steuer wie ein KapitänIch pimpere deine Frau im BMW und lasse sie gehenIch lasse es knallen, homie, knallen wie mit TNTMein Partner kommt im S8 und ist gemein wie zehnIch mache einen Boxenstop, guck mal da, dein LockenkopfIch bin der Junge, der dir dein Maul beim Kochen stopftDu hast Pech gehabt, wo ist jetzt dein Ghetto-CarIch lasse dich abknallen, als wäre mein Name Escobar[Hook: Bushido]Schick deine Kinder schlafen, hier kommt der BösewichtUnd die meisten schwulen deutschen Rapper fürchten sichWir sind ein Albtraum, du kannst es kaum glaubenDein Indie-Label wäre ohne mich ein SauhaufenDie Strasse spricht jetzt über deinen DisstrackIch habe nichts zu sagen, homie, außer: Friss DreckDenn er ist unhöflich und als Rapper ungewöhnlichDoch deine Mutter ist nicht mehr wert, als ein Kilo Pfirsich
-[Part 2: Saad]Ich fahre einen Neuwagen, Automatik, SchiebedachSeit Carlo Cokxxx Nutten finden mich die meisten Teenies krassUnd ich kann nichts dafür, ich mache mein Ding wie HerkulesSag mir erst, wer du bist, wenn dein Album fertig istIch weiß, ich bin gebildet, eingeschnappt und souveränWäre ich wie du, würde ich mir nach nem Tag die Kugel gebenUnter uns gesagt, ich bin ein Fan von 24Du willst nen Label-Deal, komm, rapp mir was am Handy vorOh mein Gott, ich habe ein schwerwiegendes ProblemDeine Mama ist mein schwer wiegendes ProblemIch weiß, die meisten Peilen diese Zeilen nicht sofortSchon nächstes Jahr teile ich mir mit Kylie meinen AwardHör bitte auf zu rappen, homie, du hast nichts erreichtMir ist ab heute gleich wie irgend so ein Wichser heißtIhr könnt zu mir kommen, ich nenne euch vier HonksDoch ihr seid mir verdammt noch mal egal wie BiathlonJetzt kommt der böse Rapper, deine Freunde zittern schonMich gibt's so oft wie ein Gewitter über LissabonIch bin die große Hoffnung, der neue SuperheldEin Junge, der auf seinem Cover die Bazooka hält[Hook: Bushido]</t>
+          <t>[Intro: Saad]
+Brrä
+[Part 1: Saad]
+Ich komme im BMW angefahren, oh man-o-man
+Wie abgefahren, alle denken ich bin arrogant
+Bitte komm nicht zu mir, ich fühle mich wie im siebten Himmel
+Ich fahre den dicksten Wagen und ich bin jetzt wieder Single
+Geh nach Hause, homie, du bist nur ein Polizist
+Du bist ein Opfer und du weißt nicht, was Hydraulik ist
+Komm mit zum Nürburg-Ring und ich lasse die Reifen qualmen
+Deine Mama lässt sich von Oliver Geissen knallen
+Ich bin überragend, weil ich überrage
+Dein Auto zeigt, du bist nur ein Freak wie Nina Hagen
+Ich kann sie alle haben, die Weiber kommen angedackelt
+Du hast einen Dachschaden so wie einen an der Waffel
+Guck mich an, ich sitze am Steuer wie ein Kapitän
+Ich pimpere deine Frau im BMW und lasse sie gehen
+Ich lasse es knallen, homie, knallen wie mit TNT
+Mein Partner kommt im S8 und ist gemein wie zehn
+Ich mache einen Boxenstop, guck mal da, dein Lockenkopf
+Ich bin der Junge, der dir dein Maul beim Kochen stopft
+Du hast Pech gehabt, wo ist jetzt dein Ghetto-Car
+Ich lasse dich abknallen, als wäre mein Name Escobar
+[Hook: Bushido]
+Schick deine Kinder schlafen, hier kommt der Bösewicht
+Und die meisten schwulen deutschen Rapper fürchten sich
+Wir sind ein Albtraum, du kannst es kaum glauben
+Dein Indie-Label wäre ohne mich ein Sauhaufen
+Die Strasse spricht jetzt über deinen Disstrack
+Ich habe nichts zu sagen, homie, außer: Friss Dreck
+Denn er ist unhöflich und als Rapper ungewöhnlich
+Doch deine Mutter ist nicht mehr wert, als ein Kilo Pfirsich
+[Part 2: Saad]
+Ich fahre einen Neuwagen, Automatik, Schiebedach
+Seit Carlo Cokxxx Nutten finden mich die meisten Teenies krass
+Und ich kann nichts dafür, ich mache mein Ding wie Herkules
+Sag mir erst, wer du bist, wenn dein Album fertig ist
+Ich weiß, ich bin gebildet, eingeschnappt und souverän
+Wäre ich wie du, würde ich mir nach nem Tag die Kugel geben
+Unter uns gesagt, ich bin ein Fan von 24
+Du willst nen Label-Deal, komm, rapp mir was am Handy vor
+Oh mein Gott, ich habe ein schwerwiegendes Problem
+Deine Mama ist mein schwer wiegendes Problem
+Ich weiß, die meisten Peilen diese Zeilen nicht sofortSchon nächstes Jahr teile ich mir mit Kylie meinen Award
+Hör bitte auf zu rappen, homie, du hast nichts erreicht
+Mir ist ab heute gleich wie irgend so ein Wichser heißt
+Ihr könnt zu mir kommen, ich nenne euch vier Honks
+Doch ihr seid mir verdammt noch mal egal wie Biathlon
+Jetzt kommt der böse Rapper, deine Freunde zittern schon
+Mich gibt's so oft wie ein Gewitter über Lissabon
+Ich bin die große Hoffnung, der neue Superheld
+Ein Junge, der auf seinem Cover die Bazooka hält
+[Hook: Bushido]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1370,7 +2343,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Hook](x6)(I'll be damned)(Here comes your ghost again)(But that's not unusual)(It's just that the moon is full)(And you happened to call)</t>
+          <t>[Hook](x6)
+(I'll be damned)
+(Here comes your ghost again)
+(But that's not unusual)
+(It's just that the moon is full)
+(And you happened to call)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
